--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_15_0.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_15_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3577825.744201384</v>
+        <v>-3578639.191413271</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2927877.345954289</v>
+        <v>2927877.345954288</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736551</v>
+        <v>504792.0292736553</v>
       </c>
     </row>
     <row r="9">
@@ -1370,10 +1370,10 @@
         <v>301.1059717842871</v>
       </c>
       <c r="C11" t="n">
-        <v>289.1172887419688</v>
+        <v>289.1172887419689</v>
       </c>
       <c r="D11" t="n">
-        <v>60.91297138487295</v>
+        <v>87.02111843693481</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>322.4070376922383</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>234.9781829577618</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>61.32070768241304</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.08218037545156</v>
+        <v>84.082180375452</v>
       </c>
       <c r="T11" t="n">
         <v>130.7597296842794</v>
       </c>
       <c r="U11" t="n">
-        <v>163.296248452628</v>
+        <v>163.2962484526289</v>
       </c>
       <c r="V11" t="n">
         <v>244.6123490244662</v>
@@ -1464,10 +1464,10 @@
         <v>127.1529440554385</v>
       </c>
       <c r="H12" t="n">
-        <v>96.15438866313546</v>
+        <v>96.15438866313485</v>
       </c>
       <c r="I12" t="n">
-        <v>57.7733452031032</v>
+        <v>57.77334520310382</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>92.72268265898416</v>
+        <v>92.72268265898418</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>78.92267750438467</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>55.21642595585075</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>77.99174215033068</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>9.651355887629606</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>46.49600542227648</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>48.16276991271687</v>
+        <v>48.16276991271692</v>
       </c>
       <c r="S13" t="n">
-        <v>118.3637676193848</v>
+        <v>118.3637676193849</v>
       </c>
       <c r="T13" t="n">
-        <v>140.8174128706116</v>
+        <v>140.8174128706114</v>
       </c>
       <c r="U13" t="n">
-        <v>195.3080224141332</v>
+        <v>195.3080224141335</v>
       </c>
       <c r="V13" t="n">
-        <v>169.1308190586097</v>
+        <v>169.1308190586098</v>
       </c>
       <c r="W13" t="n">
         <v>194.297705129223</v>
@@ -1607,13 +1607,13 @@
         <v>301.1059717842871</v>
       </c>
       <c r="C14" t="n">
-        <v>289.1172887419688</v>
+        <v>289.1172887419689</v>
       </c>
       <c r="D14" t="n">
-        <v>280.0985927864968</v>
+        <v>280.0985927864969</v>
       </c>
       <c r="E14" t="n">
-        <v>41.90070860819998</v>
+        <v>41.90070860820077</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>61.320707682413</v>
+        <v>61.32070768241303</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.08218037545156</v>
+        <v>84.0821803754516</v>
       </c>
       <c r="T14" t="n">
-        <v>130.7597296842794</v>
+        <v>130.7597296842796</v>
       </c>
       <c r="U14" t="n">
-        <v>163.2962484526289</v>
+        <v>163.2962484526284</v>
       </c>
       <c r="V14" t="n">
         <v>244.6123490244662</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>92.72268265898416</v>
+        <v>85.39506671287219</v>
       </c>
       <c r="C16" t="n">
-        <v>78.92267750438464</v>
+        <v>78.92267750438467</v>
       </c>
       <c r="D16" t="n">
-        <v>55.21642595585192</v>
+        <v>62.54404190196306</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>48.16276991271687</v>
+        <v>48.1627699127169</v>
       </c>
       <c r="S16" t="n">
         <v>118.3637676193849</v>
@@ -1822,7 +1822,7 @@
         <v>195.3080224141331</v>
       </c>
       <c r="V16" t="n">
-        <v>169.1308190586097</v>
+        <v>169.1308190586098</v>
       </c>
       <c r="W16" t="n">
         <v>194.297705129223</v>
@@ -1856,7 +1856,7 @@
         <v>244.0827549329389</v>
       </c>
       <c r="G17" t="n">
-        <v>245.4772461807971</v>
+        <v>245.4772461807972</v>
       </c>
       <c r="H17" t="n">
         <v>158.0483914463211</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.15238886401155</v>
+        <v>7.152388864010987</v>
       </c>
       <c r="T17" t="n">
-        <v>53.82993817283881</v>
+        <v>53.82993817283916</v>
       </c>
       <c r="U17" t="n">
         <v>86.36645694118843</v>
@@ -1929,13 +1929,13 @@
         <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
-        <v>145.5577298436975</v>
+        <v>145.5577298436986</v>
       </c>
       <c r="F18" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>127.1529440554391</v>
+        <v>127.1529440554385</v>
       </c>
       <c r="H18" t="n">
         <v>96.15438866313485</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.79289114754354</v>
+        <v>15.79289114754357</v>
       </c>
       <c r="C19" t="n">
-        <v>1.992885992944025</v>
+        <v>1.992885992944053</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.061950638890062</v>
+        <v>1.061950638890091</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>41.4339761079443</v>
+        <v>41.43397610794432</v>
       </c>
       <c r="T19" t="n">
-        <v>219.8495741058296</v>
+        <v>63.887621359171</v>
       </c>
       <c r="U19" t="n">
         <v>118.3782309026925</v>
       </c>
       <c r="V19" t="n">
-        <v>92.20102754716913</v>
+        <v>92.20102754716916</v>
       </c>
       <c r="W19" t="n">
-        <v>117.3679136177824</v>
+        <v>273.3298663644408</v>
       </c>
       <c r="X19" t="n">
-        <v>63.01301561358551</v>
+        <v>63.01301561358554</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.8878833696532</v>
+        <v>53.88788336965322</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>224.1761802728465</v>
+        <v>224.1761802728466</v>
       </c>
       <c r="C20" t="n">
-        <v>212.1874972305282</v>
+        <v>212.1874972305283</v>
       </c>
       <c r="D20" t="n">
-        <v>203.1688012750562</v>
+        <v>203.1688012750563</v>
       </c>
       <c r="E20" t="n">
-        <v>224.9109388449617</v>
+        <v>224.9109388449618</v>
       </c>
       <c r="F20" t="n">
-        <v>244.0827549329389</v>
+        <v>244.082754932939</v>
       </c>
       <c r="G20" t="n">
-        <v>245.4772461807971</v>
+        <v>245.4772461807972</v>
       </c>
       <c r="H20" t="n">
-        <v>158.0483914463211</v>
+        <v>158.0483914463212</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7.152388864010959</v>
+        <v>7.152388864011044</v>
       </c>
       <c r="T20" t="n">
-        <v>53.82993817283871</v>
+        <v>53.82993817283916</v>
       </c>
       <c r="U20" t="n">
-        <v>86.36645694118889</v>
+        <v>86.36645694118843</v>
       </c>
       <c r="V20" t="n">
-        <v>167.6825575130256</v>
+        <v>167.6825575130257</v>
       </c>
       <c r="W20" t="n">
-        <v>192.9826569909825</v>
+        <v>192.9826569909826</v>
       </c>
       <c r="X20" t="n">
-        <v>212.2829152237291</v>
+        <v>212.2829152237292</v>
       </c>
       <c r="Y20" t="n">
-        <v>223.6795130199279</v>
+        <v>223.679513019928</v>
       </c>
     </row>
     <row r="21">
@@ -2163,13 +2163,13 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
-        <v>137.4502506396906</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E21" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F21" t="n">
-        <v>133.3468600696244</v>
+        <v>133.3468600696254</v>
       </c>
       <c r="G21" t="n">
         <v>127.1529440554385</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.79289114754354</v>
+        <v>15.79289114754363</v>
       </c>
       <c r="C22" t="n">
-        <v>1.992885992944025</v>
+        <v>1.99288599294411</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.061950638890062</v>
+        <v>1.061950638890148</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2281,31 +2281,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.91484350440138</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>179.4810853502017</v>
+        <v>41.43397610794438</v>
       </c>
       <c r="T22" t="n">
-        <v>63.88762135917097</v>
+        <v>63.88762135917106</v>
       </c>
       <c r="U22" t="n">
-        <v>118.3782309026925</v>
+        <v>118.3782309026926</v>
       </c>
       <c r="V22" t="n">
-        <v>92.20102754716913</v>
+        <v>92.20102754716922</v>
       </c>
       <c r="W22" t="n">
-        <v>117.3679136177824</v>
+        <v>273.3298663644403</v>
       </c>
       <c r="X22" t="n">
-        <v>63.01301561358551</v>
+        <v>63.01301561358559</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.8878833696532</v>
+        <v>53.88788336965328</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>224.1761802728465</v>
+        <v>224.1761802728466</v>
       </c>
       <c r="C23" t="n">
-        <v>212.1874972305282</v>
+        <v>212.1874972305283</v>
       </c>
       <c r="D23" t="n">
-        <v>203.1688012750562</v>
+        <v>203.1688012750563</v>
       </c>
       <c r="E23" t="n">
-        <v>224.9109388449617</v>
+        <v>224.9109388449618</v>
       </c>
       <c r="F23" t="n">
-        <v>244.0827549329389</v>
+        <v>244.082754932939</v>
       </c>
       <c r="G23" t="n">
-        <v>245.4772461807971</v>
+        <v>245.4772461807972</v>
       </c>
       <c r="H23" t="n">
-        <v>158.0483914463211</v>
+        <v>158.0483914463212</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>7.152388864011099</v>
+        <v>7.152388864011044</v>
       </c>
       <c r="T23" t="n">
-        <v>53.8299381728388</v>
+        <v>53.82993817283889</v>
       </c>
       <c r="U23" t="n">
-        <v>86.36645694118843</v>
+        <v>86.36645694118889</v>
       </c>
       <c r="V23" t="n">
-        <v>167.6825575130256</v>
+        <v>167.6825575130257</v>
       </c>
       <c r="W23" t="n">
-        <v>192.9826569909825</v>
+        <v>192.9826569909826</v>
       </c>
       <c r="X23" t="n">
-        <v>212.2829152237291</v>
+        <v>212.2829152237292</v>
       </c>
       <c r="Y23" t="n">
-        <v>223.6795130199279</v>
+        <v>223.679513019928</v>
       </c>
     </row>
     <row r="24">
@@ -2412,7 +2412,7 @@
         <v>127.1529440554385</v>
       </c>
       <c r="H24" t="n">
-        <v>96.15438866313485</v>
+        <v>96.15438866313634</v>
       </c>
       <c r="I24" t="n">
         <v>57.7733452031032</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.79289114754354</v>
+        <v>15.79289114754363</v>
       </c>
       <c r="C25" t="n">
-        <v>1.992885992944025</v>
+        <v>1.99288599294411</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.061950638890062</v>
+        <v>1.061950638890148</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>41.4339761079443</v>
+        <v>41.43397610794438</v>
       </c>
       <c r="T25" t="n">
-        <v>63.88762135917097</v>
+        <v>63.88762135917106</v>
       </c>
       <c r="U25" t="n">
-        <v>274.3401836493512</v>
+        <v>118.3782309026926</v>
       </c>
       <c r="V25" t="n">
-        <v>92.20102754716913</v>
+        <v>92.20102754716922</v>
       </c>
       <c r="W25" t="n">
-        <v>117.3679136177824</v>
+        <v>273.3298663644403</v>
       </c>
       <c r="X25" t="n">
-        <v>63.01301561358551</v>
+        <v>63.01301561358559</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.8878833696532</v>
+        <v>53.88788336965328</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>221.4761640403573</v>
       </c>
       <c r="I26" t="n">
-        <v>47.81868876500859</v>
+        <v>47.81868876500857</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.58016145804713</v>
+        <v>70.58016145804714</v>
       </c>
       <c r="T26" t="n">
-        <v>117.257710766875</v>
+        <v>117.2577107668747</v>
       </c>
       <c r="U26" t="n">
-        <v>149.7942295352244</v>
+        <v>149.7942295352258</v>
       </c>
       <c r="V26" t="n">
         <v>231.1103301070618</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.22066374157974</v>
+        <v>79.22066374157973</v>
       </c>
       <c r="C28" t="n">
-        <v>65.42065858698022</v>
+        <v>65.42065858698021</v>
       </c>
       <c r="D28" t="n">
-        <v>49.04202298455861</v>
+        <v>49.0420229845586</v>
       </c>
       <c r="E28" t="n">
-        <v>47.98977284033806</v>
+        <v>47.98977284033805</v>
       </c>
       <c r="F28" t="n">
-        <v>48.45669716852437</v>
+        <v>48.45669716852436</v>
       </c>
       <c r="G28" t="n">
-        <v>64.48972323292627</v>
+        <v>64.48972323292625</v>
       </c>
       <c r="H28" t="n">
         <v>53.13104232626139</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66075099531246</v>
+        <v>34.6607509953125</v>
       </c>
       <c r="S28" t="n">
         <v>104.8617487019805</v>
@@ -2810,7 +2810,7 @@
         <v>221.4761640403573</v>
       </c>
       <c r="I29" t="n">
-        <v>47.81868876500859</v>
+        <v>47.8186887650086</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.58016145804713</v>
+        <v>70.58016145804716</v>
       </c>
       <c r="T29" t="n">
-        <v>117.257710766875</v>
+        <v>117.2577107668747</v>
       </c>
       <c r="U29" t="n">
-        <v>149.7942295352244</v>
+        <v>149.7942295352263</v>
       </c>
       <c r="V29" t="n">
         <v>231.1103301070618</v>
@@ -2889,7 +2889,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I30" t="n">
-        <v>57.7733452031032</v>
+        <v>57.77334520310322</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>41.28834215945685</v>
+        <v>41.28834215945687</v>
       </c>
       <c r="S30" t="n">
         <v>145.9169861849574</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.22066374157974</v>
+        <v>79.22066374157971</v>
       </c>
       <c r="C31" t="n">
-        <v>65.42065858698022</v>
+        <v>65.4206585869802</v>
       </c>
       <c r="D31" t="n">
-        <v>49.04202298455861</v>
+        <v>49.04202298455859</v>
       </c>
       <c r="E31" t="n">
-        <v>47.98977284033806</v>
+        <v>47.98977284033803</v>
       </c>
       <c r="F31" t="n">
-        <v>48.45669716852437</v>
+        <v>48.45669716852434</v>
       </c>
       <c r="G31" t="n">
-        <v>64.48972323292627</v>
+        <v>64.48972323292624</v>
       </c>
       <c r="H31" t="n">
-        <v>53.13104232626141</v>
+        <v>53.13104232626137</v>
       </c>
       <c r="I31" t="n">
-        <v>32.99398650487207</v>
+        <v>32.99398650487204</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66075099531245</v>
+        <v>34.6607509953125</v>
       </c>
       <c r="S31" t="n">
         <v>104.8617487019805</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>287.6039528668826</v>
+        <v>287.6039528668827</v>
       </c>
       <c r="C32" t="n">
-        <v>275.6152698245643</v>
+        <v>275.6152698245644</v>
       </c>
       <c r="D32" t="n">
-        <v>266.5965738690923</v>
+        <v>266.5965738690924</v>
       </c>
       <c r="E32" t="n">
-        <v>288.3387114389978</v>
+        <v>288.3387114389979</v>
       </c>
       <c r="F32" t="n">
-        <v>307.510527526975</v>
+        <v>307.5105275269751</v>
       </c>
       <c r="G32" t="n">
         <v>308.9050187748333</v>
       </c>
       <c r="H32" t="n">
-        <v>221.4761640403572</v>
+        <v>221.4761640403573</v>
       </c>
       <c r="I32" t="n">
-        <v>47.8186887650085</v>
+        <v>47.81868876500857</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.58016145804707</v>
+        <v>70.58016145804714</v>
       </c>
       <c r="T32" t="n">
-        <v>117.2577107668747</v>
+        <v>117.2577107668761</v>
       </c>
       <c r="U32" t="n">
-        <v>149.7942295352258</v>
+        <v>149.7942295352244</v>
       </c>
       <c r="V32" t="n">
-        <v>231.1103301070617</v>
+        <v>231.1103301070618</v>
       </c>
       <c r="W32" t="n">
-        <v>256.4104295850186</v>
+        <v>256.4104295850187</v>
       </c>
       <c r="X32" t="n">
-        <v>275.7106878177652</v>
+        <v>275.7106878177653</v>
       </c>
       <c r="Y32" t="n">
-        <v>287.107285613964</v>
+        <v>287.1072856139641</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.22066374157966</v>
+        <v>79.22066374157973</v>
       </c>
       <c r="C34" t="n">
-        <v>65.42065858698014</v>
+        <v>65.42065858698021</v>
       </c>
       <c r="D34" t="n">
-        <v>49.04202298455853</v>
+        <v>49.0420229845586</v>
       </c>
       <c r="E34" t="n">
-        <v>47.98977284033798</v>
+        <v>47.98977284033805</v>
       </c>
       <c r="F34" t="n">
-        <v>48.45669716852429</v>
+        <v>48.45669716852436</v>
       </c>
       <c r="G34" t="n">
-        <v>64.48972323292618</v>
+        <v>64.48972323292625</v>
       </c>
       <c r="H34" t="n">
-        <v>53.13104232626131</v>
+        <v>53.13104232626139</v>
       </c>
       <c r="I34" t="n">
-        <v>32.99398650487197</v>
+        <v>32.99398650487205</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66075099531238</v>
+        <v>34.66075099531244</v>
       </c>
       <c r="S34" t="n">
-        <v>104.8617487019804</v>
+        <v>104.8617487019805</v>
       </c>
       <c r="T34" t="n">
         <v>127.3153939532071</v>
       </c>
       <c r="U34" t="n">
-        <v>181.8060034967286</v>
+        <v>181.8060034967293</v>
       </c>
       <c r="V34" t="n">
         <v>155.6288001412053</v>
       </c>
       <c r="W34" t="n">
-        <v>180.7956862118185</v>
+        <v>180.7956862118186</v>
       </c>
       <c r="X34" t="n">
-        <v>126.4407882076216</v>
+        <v>126.4407882076217</v>
       </c>
       <c r="Y34" t="n">
-        <v>117.3156559636893</v>
+        <v>117.3156559636894</v>
       </c>
     </row>
     <row r="35">
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>20.49255674112947</v>
+        <v>20.49255674112902</v>
       </c>
       <c r="T35" t="n">
-        <v>67.17010604995752</v>
+        <v>67.1701060499575</v>
       </c>
       <c r="U35" t="n">
-        <v>99.7066248183077</v>
+        <v>99.70662481830816</v>
       </c>
       <c r="V35" t="n">
         <v>181.0227253901443</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.13305902466226</v>
+        <v>29.13305902466223</v>
       </c>
       <c r="C37" t="n">
-        <v>15.33305387006274</v>
+        <v>15.33305387006271</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>19.51683636612782</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>14.40211851600878</v>
+        <v>14.40211851600875</v>
       </c>
       <c r="H37" t="n">
-        <v>3.043437609343912</v>
+        <v>3.043437609343884</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3466,16 +3466,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>17.91484350440138</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>54.77414398506301</v>
+        <v>54.77414398506298</v>
       </c>
       <c r="T37" t="n">
-        <v>78.82978209801594</v>
+        <v>77.22778923628965</v>
       </c>
       <c r="U37" t="n">
         <v>131.7183987798112</v>
@@ -3487,10 +3487,10 @@
         <v>130.7080814949011</v>
       </c>
       <c r="X37" t="n">
-        <v>76.35318349070423</v>
+        <v>76.3531834907042</v>
       </c>
       <c r="Y37" t="n">
-        <v>67.22805124677191</v>
+        <v>67.22805124677188</v>
       </c>
     </row>
     <row r="38">
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>20.49255674112947</v>
+        <v>20.49255674112965</v>
       </c>
       <c r="T38" t="n">
-        <v>67.17010604995752</v>
+        <v>67.17010604995754</v>
       </c>
       <c r="U38" t="n">
         <v>99.70662481830725</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.13305902466226</v>
+        <v>29.13305902466223</v>
       </c>
       <c r="C40" t="n">
-        <v>15.33305387006274</v>
+        <v>34.84989023619055</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>14.40211851600878</v>
+        <v>14.40211851600875</v>
       </c>
       <c r="H40" t="n">
-        <v>3.043437609343912</v>
+        <v>3.043437609343884</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>54.77414398506301</v>
+        <v>54.77414398506298</v>
       </c>
       <c r="T40" t="n">
-        <v>77.22778923628968</v>
+        <v>77.22778923628965</v>
       </c>
       <c r="U40" t="n">
         <v>131.7183987798112</v>
@@ -3724,10 +3724,10 @@
         <v>130.7080814949011</v>
       </c>
       <c r="X40" t="n">
-        <v>95.87001985683187</v>
+        <v>76.3531834907042</v>
       </c>
       <c r="Y40" t="n">
-        <v>67.22805124677191</v>
+        <v>67.22805124677188</v>
       </c>
     </row>
     <row r="41">
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>20.4925567411297</v>
+        <v>20.49255674112947</v>
       </c>
       <c r="T41" t="n">
-        <v>67.17010604995663</v>
+        <v>67.17010604995755</v>
       </c>
       <c r="U41" t="n">
-        <v>99.7066248183086</v>
+        <v>99.7066248183077</v>
       </c>
       <c r="V41" t="n">
         <v>181.0227253901443</v>
@@ -3901,7 +3901,7 @@
         <v>15.33305387006277</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>19.51683636612735</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>14.40211851600881</v>
       </c>
       <c r="H43" t="n">
-        <v>3.04343760934394</v>
+        <v>3.043437609343941</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>77.22778923628971</v>
       </c>
       <c r="U43" t="n">
-        <v>151.2352351459385</v>
+        <v>131.7183987798112</v>
       </c>
       <c r="V43" t="n">
         <v>105.5411954242879</v>
@@ -3977,19 +3977,19 @@
         <v>237.5163481499652</v>
       </c>
       <c r="C44" t="n">
-        <v>225.5276651076469</v>
+        <v>225.527665107647</v>
       </c>
       <c r="D44" t="n">
         <v>216.5089691521749</v>
       </c>
       <c r="E44" t="n">
-        <v>238.2511067220804</v>
+        <v>238.2511067220805</v>
       </c>
       <c r="F44" t="n">
         <v>257.4229228100576</v>
       </c>
       <c r="G44" t="n">
-        <v>258.8174140579158</v>
+        <v>258.8174140579159</v>
       </c>
       <c r="H44" t="n">
         <v>171.3885593234398</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>20.49255674112968</v>
+        <v>20.4925567411297</v>
       </c>
       <c r="T44" t="n">
-        <v>67.17010604995708</v>
+        <v>67.17010604995755</v>
       </c>
       <c r="U44" t="n">
-        <v>99.70662481830816</v>
+        <v>99.70662481830725</v>
       </c>
       <c r="V44" t="n">
         <v>181.0227253901443</v>
@@ -4040,7 +4040,7 @@
         <v>206.3228248681012</v>
       </c>
       <c r="X44" t="n">
-        <v>225.6230831008478</v>
+        <v>225.6230831008479</v>
       </c>
       <c r="Y44" t="n">
         <v>237.0196808970466</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>41.28834215945685</v>
+        <v>41.28834215945683</v>
       </c>
       <c r="S45" t="n">
         <v>145.9169861849574</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.13305902466226</v>
+        <v>29.13305902466229</v>
       </c>
       <c r="C46" t="n">
-        <v>15.33305387006274</v>
+        <v>34.84989023619023</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>14.40211851600878</v>
+        <v>14.40211851600881</v>
       </c>
       <c r="H46" t="n">
-        <v>3.043437609343912</v>
+        <v>3.043437609343939</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>54.77414398506301</v>
+        <v>54.77414398506303</v>
       </c>
       <c r="T46" t="n">
-        <v>77.22778923628968</v>
+        <v>77.22778923628971</v>
       </c>
       <c r="U46" t="n">
         <v>131.7183987798112</v>
       </c>
       <c r="V46" t="n">
-        <v>105.5411954242878</v>
+        <v>105.5411954242879</v>
       </c>
       <c r="W46" t="n">
         <v>130.7080814949011</v>
       </c>
       <c r="X46" t="n">
-        <v>76.35318349070423</v>
+        <v>76.35318349070425</v>
       </c>
       <c r="Y46" t="n">
-        <v>86.74488761289957</v>
+        <v>67.22805124677194</v>
       </c>
     </row>
   </sheetData>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>729.8589121839636</v>
+        <v>729.858912183962</v>
       </c>
       <c r="C11" t="n">
-        <v>437.8212467880356</v>
+        <v>437.8212467880339</v>
       </c>
       <c r="D11" t="n">
-        <v>376.2929928639215</v>
+        <v>349.9211271547664</v>
       </c>
       <c r="E11" t="n">
-        <v>376.2929928639215</v>
+        <v>349.9211271547664</v>
       </c>
       <c r="F11" t="n">
-        <v>376.2929928639215</v>
+        <v>349.9211271547664</v>
       </c>
       <c r="G11" t="n">
-        <v>50.62931842731713</v>
+        <v>349.9211271547664</v>
       </c>
       <c r="H11" t="n">
-        <v>50.62931842731713</v>
+        <v>112.5694271974313</v>
       </c>
       <c r="I11" t="n">
         <v>50.62931842731713</v>
@@ -5042,10 +5042,10 @@
         <v>50.62931842731713</v>
       </c>
       <c r="K11" t="n">
-        <v>287.2391769275706</v>
+        <v>287.2391769275707</v>
       </c>
       <c r="L11" t="n">
-        <v>719.2973161773715</v>
+        <v>719.2973161773716</v>
       </c>
       <c r="M11" t="n">
         <v>1206.194903144586</v>
@@ -5066,25 +5066,25 @@
         <v>2531.465921365857</v>
       </c>
       <c r="S11" t="n">
-        <v>2446.534426037118</v>
+        <v>2446.534426037117</v>
       </c>
       <c r="T11" t="n">
-        <v>2314.453891002492</v>
+        <v>2314.453891002491</v>
       </c>
       <c r="U11" t="n">
-        <v>2149.508185494787</v>
+        <v>2149.508185494785</v>
       </c>
       <c r="V11" t="n">
-        <v>1902.425004661993</v>
+        <v>1902.425004661991</v>
       </c>
       <c r="W11" t="n">
-        <v>1629.786167790858</v>
+        <v>1629.786167790857</v>
       </c>
       <c r="X11" t="n">
-        <v>1337.652120583616</v>
+        <v>1337.652120583614</v>
       </c>
       <c r="Y11" t="n">
-        <v>1034.006358430719</v>
+        <v>1034.006358430717</v>
       </c>
     </row>
     <row r="12">
@@ -5112,7 +5112,7 @@
         <v>206.1118778881643</v>
       </c>
       <c r="H12" t="n">
-        <v>108.986232773886</v>
+        <v>108.9862327738867</v>
       </c>
       <c r="I12" t="n">
         <v>50.62931842731713</v>
@@ -5124,16 +5124,16 @@
         <v>50.62931842731713</v>
       </c>
       <c r="L12" t="n">
-        <v>377.7365381371093</v>
+        <v>377.7365381371098</v>
       </c>
       <c r="M12" t="n">
-        <v>935.0807557888476</v>
+        <v>935.0807557888481</v>
       </c>
       <c r="N12" t="n">
         <v>1520.571119459616</v>
       </c>
       <c r="O12" t="n">
-        <v>1980.672185824251</v>
+        <v>1980.672185824252</v>
       </c>
       <c r="P12" t="n">
         <v>2337.264736621381</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>186.1233623265462</v>
+        <v>186.1233623265449</v>
       </c>
       <c r="C13" t="n">
-        <v>186.1233623265462</v>
+        <v>106.4034860594896</v>
       </c>
       <c r="D13" t="n">
-        <v>186.1233623265462</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="E13" t="n">
-        <v>186.1233623265462</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="F13" t="n">
-        <v>186.1233623265462</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="G13" t="n">
-        <v>107.3438248009597</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="H13" t="n">
-        <v>97.59498047002066</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="I13" t="n">
         <v>50.62931842731713</v>
@@ -5200,49 +5200,49 @@
         <v>96.79005415413175</v>
       </c>
       <c r="K13" t="n">
-        <v>246.2990519958643</v>
+        <v>246.2990519958642</v>
       </c>
       <c r="L13" t="n">
-        <v>470.5847128405362</v>
+        <v>470.584712840536</v>
       </c>
       <c r="M13" t="n">
-        <v>714.1904553447748</v>
+        <v>714.1904553447746</v>
       </c>
       <c r="N13" t="n">
-        <v>957.3332466068816</v>
+        <v>957.3332466068813</v>
       </c>
       <c r="O13" t="n">
-        <v>1177.722352077498</v>
+        <v>1177.722352077497</v>
       </c>
       <c r="P13" t="n">
-        <v>1357.735393016882</v>
+        <v>1357.735393016881</v>
       </c>
       <c r="Q13" t="n">
-        <v>1428.106858962691</v>
+        <v>1428.10685896269</v>
       </c>
       <c r="R13" t="n">
-        <v>1379.457596424593</v>
+        <v>1379.457596424592</v>
       </c>
       <c r="S13" t="n">
-        <v>1259.898235192891</v>
+        <v>1259.89823519289</v>
       </c>
       <c r="T13" t="n">
         <v>1117.658424212475</v>
       </c>
       <c r="U13" t="n">
-        <v>920.3775934911286</v>
+        <v>920.3775934911278</v>
       </c>
       <c r="V13" t="n">
-        <v>749.5383823208157</v>
+        <v>749.5383823208149</v>
       </c>
       <c r="W13" t="n">
-        <v>553.2780741094793</v>
+        <v>553.2780741094784</v>
       </c>
       <c r="X13" t="n">
-        <v>411.9217032761196</v>
+        <v>411.9217032761187</v>
       </c>
       <c r="Y13" t="n">
-        <v>279.7826377396615</v>
+        <v>279.7826377396602</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>729.8589121839625</v>
+        <v>729.8589121839632</v>
       </c>
       <c r="C14" t="n">
-        <v>437.8212467880344</v>
+        <v>437.821246788035</v>
       </c>
       <c r="D14" t="n">
-        <v>154.8933752865225</v>
+        <v>154.893375286523</v>
       </c>
       <c r="E14" t="n">
         <v>112.5694271974313</v>
@@ -5273,25 +5273,25 @@
         <v>112.5694271974313</v>
       </c>
       <c r="I14" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="J14" t="n">
         <v>167.8985774144699</v>
       </c>
       <c r="K14" t="n">
-        <v>287.2391769275706</v>
+        <v>287.2391769275716</v>
       </c>
       <c r="L14" t="n">
-        <v>719.2973161773715</v>
+        <v>719.2973161773725</v>
       </c>
       <c r="M14" t="n">
-        <v>1206.194903144586</v>
+        <v>1206.194903144587</v>
       </c>
       <c r="N14" t="n">
-        <v>1679.700173710447</v>
+        <v>1679.700173710448</v>
       </c>
       <c r="O14" t="n">
-        <v>2074.574784355413</v>
+        <v>2074.574784355414</v>
       </c>
       <c r="P14" t="n">
         <v>2379.433668932841</v>
@@ -5309,19 +5309,19 @@
         <v>2314.453891002492</v>
       </c>
       <c r="U14" t="n">
-        <v>2149.508185494786</v>
+        <v>2149.508185494787</v>
       </c>
       <c r="V14" t="n">
         <v>1902.425004661992</v>
       </c>
       <c r="W14" t="n">
-        <v>1629.786167790857</v>
+        <v>1629.786167790858</v>
       </c>
       <c r="X14" t="n">
-        <v>1337.652120583615</v>
+        <v>1337.652120583616</v>
       </c>
       <c r="Y14" t="n">
-        <v>1034.006358430717</v>
+        <v>1034.006358430718</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>108.986232773886</v>
       </c>
       <c r="I15" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="J15" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="K15" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="L15" t="n">
-        <v>377.7365381371093</v>
+        <v>377.7365381371098</v>
       </c>
       <c r="M15" t="n">
-        <v>935.0807557888476</v>
+        <v>935.0807557888481</v>
       </c>
       <c r="N15" t="n">
         <v>1520.571119459616</v>
       </c>
       <c r="O15" t="n">
-        <v>1980.672185824251</v>
+        <v>1980.672185824252</v>
       </c>
       <c r="P15" t="n">
         <v>2337.264736621381</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>186.123362326546</v>
+        <v>193.5249945953452</v>
       </c>
       <c r="C16" t="n">
-        <v>106.4034860594908</v>
+        <v>113.8051183282899</v>
       </c>
       <c r="D16" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="E16" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="F16" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="G16" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="H16" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="I16" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="J16" t="n">
-        <v>96.79005415413179</v>
+        <v>96.79005415413178</v>
       </c>
       <c r="K16" t="n">
-        <v>246.2990519958643</v>
+        <v>246.2990519958642</v>
       </c>
       <c r="L16" t="n">
-        <v>470.5847128405362</v>
+        <v>470.5847128405361</v>
       </c>
       <c r="M16" t="n">
-        <v>714.1904553447748</v>
+        <v>714.1904553447749</v>
       </c>
       <c r="N16" t="n">
         <v>957.3332466068816</v>
@@ -5458,28 +5458,28 @@
         <v>1428.106858962691</v>
       </c>
       <c r="R16" t="n">
-        <v>1379.457596424593</v>
+        <v>1379.457596424592</v>
       </c>
       <c r="S16" t="n">
-        <v>1259.898235192891</v>
+        <v>1259.89823519289</v>
       </c>
       <c r="T16" t="n">
         <v>1117.658424212475</v>
       </c>
       <c r="U16" t="n">
-        <v>920.3775934911287</v>
+        <v>920.377593491128</v>
       </c>
       <c r="V16" t="n">
-        <v>749.5383823208158</v>
+        <v>749.538382320815</v>
       </c>
       <c r="W16" t="n">
-        <v>553.2780741094795</v>
+        <v>553.2780741094787</v>
       </c>
       <c r="X16" t="n">
-        <v>411.9217032761197</v>
+        <v>411.9217032761189</v>
       </c>
       <c r="Y16" t="n">
-        <v>279.7826377396613</v>
+        <v>279.7826377396605</v>
       </c>
     </row>
     <row r="17">
@@ -5492,43 +5492,43 @@
         <v>1351.513793084493</v>
       </c>
       <c r="C17" t="n">
-        <v>1137.18298780113</v>
+        <v>1137.182987801131</v>
       </c>
       <c r="D17" t="n">
-        <v>931.9619764121846</v>
+        <v>931.9619764121849</v>
       </c>
       <c r="E17" t="n">
-        <v>704.7792099021223</v>
+        <v>704.7792099021225</v>
       </c>
       <c r="F17" t="n">
-        <v>458.2309725961234</v>
+        <v>458.2309725961236</v>
       </c>
       <c r="G17" t="n">
-        <v>210.2741582720859</v>
+        <v>210.274158272086</v>
       </c>
       <c r="H17" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="I17" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="J17" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="K17" t="n">
-        <v>358.6187566067426</v>
+        <v>287.2391769275716</v>
       </c>
       <c r="L17" t="n">
-        <v>719.2973161773715</v>
+        <v>719.2973161773725</v>
       </c>
       <c r="M17" t="n">
-        <v>1206.194903144586</v>
+        <v>1206.194903144587</v>
       </c>
       <c r="N17" t="n">
-        <v>1679.700173710447</v>
+        <v>1679.700173710448</v>
       </c>
       <c r="O17" t="n">
-        <v>2074.574784355413</v>
+        <v>2074.574784355414</v>
       </c>
       <c r="P17" t="n">
         <v>2379.433668932841</v>
@@ -5540,22 +5540,22 @@
         <v>2531.465921365857</v>
       </c>
       <c r="S17" t="n">
-        <v>2524.241286149683</v>
+        <v>2524.241286149684</v>
       </c>
       <c r="T17" t="n">
         <v>2469.867611227624</v>
       </c>
       <c r="U17" t="n">
-        <v>2382.628765832484</v>
+        <v>2382.628765832485</v>
       </c>
       <c r="V17" t="n">
-        <v>2213.252445112256</v>
+        <v>2213.252445112257</v>
       </c>
       <c r="W17" t="n">
-        <v>2018.320468353688</v>
+        <v>2018.320468353689</v>
       </c>
       <c r="X17" t="n">
-        <v>1803.893281259012</v>
+        <v>1803.893281259013</v>
       </c>
       <c r="Y17" t="n">
         <v>1577.954379218681</v>
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>916.8133128779675</v>
+        <v>916.813312877968</v>
       </c>
       <c r="C18" t="n">
-        <v>755.1096401189222</v>
+        <v>755.1096401189227</v>
       </c>
       <c r="D18" t="n">
-        <v>616.2710031091343</v>
+        <v>616.2710031091348</v>
       </c>
       <c r="E18" t="n">
-        <v>469.2429931660055</v>
+        <v>469.2429931660049</v>
       </c>
       <c r="F18" t="n">
-        <v>334.5491951158799</v>
+        <v>334.5491951158793</v>
       </c>
       <c r="G18" t="n">
         <v>206.1118778881637</v>
@@ -5589,25 +5589,25 @@
         <v>108.986232773886</v>
       </c>
       <c r="I18" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="J18" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="K18" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="L18" t="n">
-        <v>478.4167050432619</v>
+        <v>377.7365381371098</v>
       </c>
       <c r="M18" t="n">
-        <v>935.0807557888476</v>
+        <v>935.0807557888481</v>
       </c>
       <c r="N18" t="n">
         <v>1520.571119459616</v>
       </c>
       <c r="O18" t="n">
-        <v>1980.672185824251</v>
+        <v>1980.672185824252</v>
       </c>
       <c r="P18" t="n">
         <v>2337.264736621381</v>
@@ -5616,13 +5616,13 @@
         <v>2531.465921365857</v>
       </c>
       <c r="R18" t="n">
-        <v>2489.760525245193</v>
+        <v>2489.760525245194</v>
       </c>
       <c r="S18" t="n">
         <v>2342.369630108873</v>
       </c>
       <c r="T18" t="n">
-        <v>2154.858197092098</v>
+        <v>2154.858197092099</v>
       </c>
       <c r="U18" t="n">
         <v>1936.382561450211</v>
@@ -5634,10 +5634,10 @@
         <v>1466.671070131855</v>
       </c>
       <c r="X18" t="n">
-        <v>1268.754082009649</v>
+        <v>1268.75408200965</v>
       </c>
       <c r="Y18" t="n">
-        <v>1076.232755659228</v>
+        <v>1076.232755659229</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.71501199482631</v>
+        <v>53.71501199482638</v>
       </c>
       <c r="C19" t="n">
-        <v>51.7019958403374</v>
+        <v>51.70199584033743</v>
       </c>
       <c r="D19" t="n">
-        <v>51.7019958403374</v>
+        <v>51.70199584033743</v>
       </c>
       <c r="E19" t="n">
-        <v>51.7019958403374</v>
+        <v>51.70199584033743</v>
       </c>
       <c r="F19" t="n">
-        <v>51.7019958403374</v>
+        <v>51.70199584033743</v>
       </c>
       <c r="G19" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="H19" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="I19" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="J19" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="K19" t="n">
         <v>112.0311552538833</v>
       </c>
       <c r="L19" t="n">
-        <v>248.2096550833889</v>
+        <v>248.2096550833888</v>
       </c>
       <c r="M19" t="n">
         <v>403.7082365724611</v>
@@ -5686,37 +5686,37 @@
         <v>558.7438668194015</v>
       </c>
       <c r="O19" t="n">
-        <v>691.0258112748514</v>
+        <v>691.0258112748513</v>
       </c>
       <c r="P19" t="n">
-        <v>782.9316911990691</v>
+        <v>782.931691199069</v>
       </c>
       <c r="Q19" t="n">
-        <v>782.9316911990691</v>
+        <v>782.931691199069</v>
       </c>
       <c r="R19" t="n">
-        <v>782.9316911990691</v>
+        <v>782.931691199069</v>
       </c>
       <c r="S19" t="n">
-        <v>741.0791900799334</v>
+        <v>741.0791900799333</v>
       </c>
       <c r="T19" t="n">
-        <v>519.008913205358</v>
+        <v>676.5462392120837</v>
       </c>
       <c r="U19" t="n">
-        <v>399.4349425965777</v>
+        <v>556.9722686033034</v>
       </c>
       <c r="V19" t="n">
-        <v>306.3025915388311</v>
+        <v>463.8399175455568</v>
       </c>
       <c r="W19" t="n">
-        <v>187.7491434400609</v>
+        <v>187.7491434400611</v>
       </c>
       <c r="X19" t="n">
-        <v>124.0996327192675</v>
+        <v>124.0996327192676</v>
       </c>
       <c r="Y19" t="n">
-        <v>69.66742729537535</v>
+        <v>69.66742729537543</v>
       </c>
     </row>
     <row r="20">
@@ -5729,43 +5729,43 @@
         <v>1351.513793084493</v>
       </c>
       <c r="C20" t="n">
-        <v>1137.18298780113</v>
+        <v>1137.182987801131</v>
       </c>
       <c r="D20" t="n">
-        <v>931.9619764121846</v>
+        <v>931.9619764121849</v>
       </c>
       <c r="E20" t="n">
-        <v>704.7792099021223</v>
+        <v>704.7792099021225</v>
       </c>
       <c r="F20" t="n">
-        <v>458.2309725961234</v>
+        <v>458.2309725961235</v>
       </c>
       <c r="G20" t="n">
-        <v>210.2741582720859</v>
+        <v>210.274158272086</v>
       </c>
       <c r="H20" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="I20" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="J20" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="K20" t="n">
-        <v>287.2391769275706</v>
+        <v>287.2391769275716</v>
       </c>
       <c r="L20" t="n">
-        <v>719.2973161773715</v>
+        <v>719.2973161773725</v>
       </c>
       <c r="M20" t="n">
-        <v>1206.194903144586</v>
+        <v>1206.194903144587</v>
       </c>
       <c r="N20" t="n">
-        <v>1679.700173710447</v>
+        <v>1679.700173710448</v>
       </c>
       <c r="O20" t="n">
-        <v>2074.574784355413</v>
+        <v>2074.574784355414</v>
       </c>
       <c r="P20" t="n">
         <v>2379.433668932841</v>
@@ -5783,7 +5783,7 @@
         <v>2469.867611227624</v>
       </c>
       <c r="U20" t="n">
-        <v>2382.628765832484</v>
+        <v>2382.628765832485</v>
       </c>
       <c r="V20" t="n">
         <v>2213.252445112256</v>
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>916.8133128779675</v>
+        <v>916.813312877968</v>
       </c>
       <c r="C21" t="n">
-        <v>755.1096401189222</v>
+        <v>755.1096401189227</v>
       </c>
       <c r="D21" t="n">
-        <v>616.2710031091337</v>
+        <v>616.2710031091348</v>
       </c>
       <c r="E21" t="n">
-        <v>469.2429931660049</v>
+        <v>469.242993166006</v>
       </c>
       <c r="F21" t="n">
         <v>334.5491951158793</v>
@@ -5826,25 +5826,25 @@
         <v>108.986232773886</v>
       </c>
       <c r="I21" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="J21" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="K21" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="L21" t="n">
-        <v>377.7365381371093</v>
+        <v>377.7365381371098</v>
       </c>
       <c r="M21" t="n">
-        <v>935.0807557888476</v>
+        <v>935.0807557888481</v>
       </c>
       <c r="N21" t="n">
         <v>1520.571119459616</v>
       </c>
       <c r="O21" t="n">
-        <v>1980.672185824251</v>
+        <v>1980.672185824252</v>
       </c>
       <c r="P21" t="n">
         <v>2337.264736621381</v>
@@ -5853,13 +5853,13 @@
         <v>2531.465921365857</v>
       </c>
       <c r="R21" t="n">
-        <v>2489.760525245193</v>
+        <v>2489.760525245194</v>
       </c>
       <c r="S21" t="n">
         <v>2342.369630108873</v>
       </c>
       <c r="T21" t="n">
-        <v>2154.858197092098</v>
+        <v>2154.858197092099</v>
       </c>
       <c r="U21" t="n">
         <v>1936.382561450211</v>
@@ -5871,10 +5871,10 @@
         <v>1466.671070131855</v>
       </c>
       <c r="X21" t="n">
-        <v>1268.754082009649</v>
+        <v>1268.75408200965</v>
       </c>
       <c r="Y21" t="n">
-        <v>1076.232755659228</v>
+        <v>1076.232755659229</v>
       </c>
     </row>
     <row r="22">
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.71501199482631</v>
+        <v>53.71501199482649</v>
       </c>
       <c r="C22" t="n">
-        <v>51.7019958403374</v>
+        <v>51.70199584033749</v>
       </c>
       <c r="D22" t="n">
-        <v>51.7019958403374</v>
+        <v>51.70199584033749</v>
       </c>
       <c r="E22" t="n">
-        <v>51.7019958403374</v>
+        <v>51.70199584033749</v>
       </c>
       <c r="F22" t="n">
-        <v>51.7019958403374</v>
+        <v>51.70199584033749</v>
       </c>
       <c r="G22" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="H22" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="I22" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="J22" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="K22" t="n">
         <v>112.0311552538833</v>
       </c>
       <c r="L22" t="n">
-        <v>248.2096550833889</v>
+        <v>248.2096550833888</v>
       </c>
       <c r="M22" t="n">
         <v>403.7082365724611</v>
@@ -5923,37 +5923,37 @@
         <v>558.7438668194015</v>
       </c>
       <c r="O22" t="n">
-        <v>691.0258112748514</v>
+        <v>691.0258112748513</v>
       </c>
       <c r="P22" t="n">
-        <v>782.9316911990691</v>
+        <v>782.931691199069</v>
       </c>
       <c r="Q22" t="n">
-        <v>764.8358896794717</v>
+        <v>782.931691199069</v>
       </c>
       <c r="R22" t="n">
-        <v>764.8358896794717</v>
+        <v>782.931691199069</v>
       </c>
       <c r="S22" t="n">
-        <v>583.5418640732074</v>
+        <v>741.0791900799333</v>
       </c>
       <c r="T22" t="n">
-        <v>519.008913205358</v>
+        <v>676.5462392120837</v>
       </c>
       <c r="U22" t="n">
-        <v>399.4349425965777</v>
+        <v>556.9722686033033</v>
       </c>
       <c r="V22" t="n">
-        <v>306.3025915388311</v>
+        <v>463.8399175455566</v>
       </c>
       <c r="W22" t="n">
-        <v>187.7491434400609</v>
+        <v>187.7491434400613</v>
       </c>
       <c r="X22" t="n">
-        <v>124.0996327192675</v>
+        <v>124.0996327192678</v>
       </c>
       <c r="Y22" t="n">
-        <v>69.66742729537535</v>
+        <v>69.6674272953756</v>
       </c>
     </row>
     <row r="23">
@@ -5966,46 +5966,46 @@
         <v>1351.513793084493</v>
       </c>
       <c r="C23" t="n">
-        <v>1137.182987801131</v>
+        <v>1137.182987801132</v>
       </c>
       <c r="D23" t="n">
-        <v>931.9619764121855</v>
+        <v>931.9619764121858</v>
       </c>
       <c r="E23" t="n">
-        <v>704.7792099021232</v>
+        <v>704.7792099021233</v>
       </c>
       <c r="F23" t="n">
         <v>458.2309725961243</v>
       </c>
       <c r="G23" t="n">
-        <v>210.2741582720859</v>
+        <v>210.274158272086</v>
       </c>
       <c r="H23" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731715</v>
       </c>
       <c r="I23" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731715</v>
       </c>
       <c r="J23" t="n">
-        <v>167.8985774144699</v>
+        <v>50.62931842731715</v>
       </c>
       <c r="K23" t="n">
-        <v>287.2391769275706</v>
+        <v>287.2391769275716</v>
       </c>
       <c r="L23" t="n">
-        <v>719.2973161773715</v>
+        <v>719.2973161773725</v>
       </c>
       <c r="M23" t="n">
-        <v>1206.194903144586</v>
+        <v>1206.194903144587</v>
       </c>
       <c r="N23" t="n">
-        <v>1679.700173710447</v>
+        <v>1679.700173710448</v>
       </c>
       <c r="O23" t="n">
-        <v>2074.574784355413</v>
+        <v>2074.574784355414</v>
       </c>
       <c r="P23" t="n">
-        <v>2379.433668932841</v>
+        <v>2379.433668932842</v>
       </c>
       <c r="Q23" t="n">
         <v>2531.465921365857</v>
@@ -6014,10 +6014,10 @@
         <v>2531.465921365857</v>
       </c>
       <c r="S23" t="n">
-        <v>2524.241286149684</v>
+        <v>2524.241286149685</v>
       </c>
       <c r="T23" t="n">
-        <v>2469.867611227624</v>
+        <v>2469.867611227625</v>
       </c>
       <c r="U23" t="n">
         <v>2382.628765832485</v>
@@ -6032,7 +6032,7 @@
         <v>1803.893281259013</v>
       </c>
       <c r="Y23" t="n">
-        <v>1577.954379218681</v>
+        <v>1577.954379218682</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>916.813312877967</v>
+        <v>916.8133128779684</v>
       </c>
       <c r="C24" t="n">
-        <v>755.1096401189217</v>
+        <v>755.1096401189232</v>
       </c>
       <c r="D24" t="n">
-        <v>616.2710031091337</v>
+        <v>616.2710031091352</v>
       </c>
       <c r="E24" t="n">
-        <v>469.2429931660049</v>
+        <v>469.2429931660064</v>
       </c>
       <c r="F24" t="n">
-        <v>334.5491951158793</v>
+        <v>334.5491951158808</v>
       </c>
       <c r="G24" t="n">
-        <v>206.1118778881637</v>
+        <v>206.1118778881652</v>
       </c>
       <c r="H24" t="n">
-        <v>108.986232773886</v>
+        <v>108.9862327738861</v>
       </c>
       <c r="I24" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731715</v>
       </c>
       <c r="J24" t="n">
-        <v>137.8463925088448</v>
+        <v>50.62931842731715</v>
       </c>
       <c r="K24" t="n">
-        <v>137.8463925088448</v>
+        <v>50.62931842731715</v>
       </c>
       <c r="L24" t="n">
-        <v>377.7365381371088</v>
+        <v>478.4167050432619</v>
       </c>
       <c r="M24" t="n">
-        <v>935.0807557888471</v>
+        <v>935.080755788849</v>
       </c>
       <c r="N24" t="n">
-        <v>1520.571119459615</v>
+        <v>1520.571119459617</v>
       </c>
       <c r="O24" t="n">
-        <v>1980.672185824251</v>
+        <v>1980.672185824253</v>
       </c>
       <c r="P24" t="n">
-        <v>2337.264736621381</v>
+        <v>2337.264736621382</v>
       </c>
       <c r="Q24" t="n">
-        <v>2531.465921365856</v>
+        <v>2531.465921365857</v>
       </c>
       <c r="R24" t="n">
-        <v>2489.760525245193</v>
+        <v>2489.760525245194</v>
       </c>
       <c r="S24" t="n">
-        <v>2342.369630108872</v>
+        <v>2342.369630108873</v>
       </c>
       <c r="T24" t="n">
-        <v>2154.858197092098</v>
+        <v>2154.858197092099</v>
       </c>
       <c r="U24" t="n">
-        <v>1936.38256145021</v>
+        <v>1936.382561450212</v>
       </c>
       <c r="V24" t="n">
-        <v>1707.986938898544</v>
+        <v>1707.986938898546</v>
       </c>
       <c r="W24" t="n">
-        <v>1466.671070131854</v>
+        <v>1466.671070131856</v>
       </c>
       <c r="X24" t="n">
-        <v>1268.754082009649</v>
+        <v>1268.75408200965</v>
       </c>
       <c r="Y24" t="n">
-        <v>1076.232755659228</v>
+        <v>1076.232755659229</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.71501199482631</v>
+        <v>53.7150119948265</v>
       </c>
       <c r="C25" t="n">
-        <v>51.7019958403374</v>
+        <v>51.7019958403375</v>
       </c>
       <c r="D25" t="n">
-        <v>51.7019958403374</v>
+        <v>51.7019958403375</v>
       </c>
       <c r="E25" t="n">
-        <v>51.7019958403374</v>
+        <v>51.7019958403375</v>
       </c>
       <c r="F25" t="n">
-        <v>51.7019958403374</v>
+        <v>51.7019958403375</v>
       </c>
       <c r="G25" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731715</v>
       </c>
       <c r="H25" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731715</v>
       </c>
       <c r="I25" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731715</v>
       </c>
       <c r="J25" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731715</v>
       </c>
       <c r="K25" t="n">
         <v>112.0311552538833</v>
       </c>
       <c r="L25" t="n">
-        <v>248.2096550833889</v>
+        <v>248.2096550833888</v>
       </c>
       <c r="M25" t="n">
         <v>403.7082365724611</v>
@@ -6160,37 +6160,37 @@
         <v>558.7438668194015</v>
       </c>
       <c r="O25" t="n">
-        <v>691.0258112748514</v>
+        <v>691.0258112748513</v>
       </c>
       <c r="P25" t="n">
-        <v>782.9316911990691</v>
+        <v>782.931691199069</v>
       </c>
       <c r="Q25" t="n">
-        <v>782.9316911990691</v>
+        <v>782.931691199069</v>
       </c>
       <c r="R25" t="n">
-        <v>782.9316911990691</v>
+        <v>782.931691199069</v>
       </c>
       <c r="S25" t="n">
-        <v>741.0791900799334</v>
+        <v>741.0791900799333</v>
       </c>
       <c r="T25" t="n">
-        <v>676.5462392120839</v>
+        <v>676.5462392120837</v>
       </c>
       <c r="U25" t="n">
-        <v>399.4349425965777</v>
+        <v>556.9722686033033</v>
       </c>
       <c r="V25" t="n">
-        <v>306.3025915388311</v>
+        <v>463.8399175455566</v>
       </c>
       <c r="W25" t="n">
-        <v>187.7491434400609</v>
+        <v>187.7491434400614</v>
       </c>
       <c r="X25" t="n">
-        <v>124.0996327192675</v>
+        <v>124.0996327192678</v>
       </c>
       <c r="Y25" t="n">
-        <v>69.66742729537535</v>
+        <v>69.66742729537563</v>
       </c>
     </row>
     <row r="26">
@@ -6200,61 +6200,61 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1803.517264476238</v>
+        <v>1803.517264476237</v>
       </c>
       <c r="C26" t="n">
-        <v>1525.118002027183</v>
+        <v>1525.118002027182</v>
       </c>
       <c r="D26" t="n">
         <v>1255.828533472544</v>
       </c>
       <c r="E26" t="n">
-        <v>964.5773097967885</v>
+        <v>964.5773097967883</v>
       </c>
       <c r="F26" t="n">
-        <v>653.9606153250966</v>
+        <v>653.9606153250963</v>
       </c>
       <c r="G26" t="n">
-        <v>341.935343835366</v>
+        <v>341.9353438353658</v>
       </c>
       <c r="H26" t="n">
         <v>118.2220468249039</v>
       </c>
       <c r="I26" t="n">
-        <v>69.92034100166292</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J26" t="n">
         <v>288.6637597322124</v>
       </c>
       <c r="K26" t="n">
-        <v>596.8002826177371</v>
+        <v>698.1273576550346</v>
       </c>
       <c r="L26" t="n">
-        <v>1130.332581610935</v>
+        <v>1130.332581610936</v>
       </c>
       <c r="M26" t="n">
-        <v>1718.704328321546</v>
+        <v>1718.704328321547</v>
       </c>
       <c r="N26" t="n">
-        <v>2293.683758630804</v>
+        <v>2293.683758630805</v>
       </c>
       <c r="O26" t="n">
-        <v>2790.032529019166</v>
+        <v>2790.032529019167</v>
       </c>
       <c r="P26" t="n">
-        <v>3196.36557333999</v>
+        <v>3196.365573339991</v>
       </c>
       <c r="Q26" t="n">
-        <v>3449.871985516403</v>
+        <v>3449.871985516404</v>
       </c>
       <c r="R26" t="n">
-        <v>3496.017050083146</v>
+        <v>3496.017050083147</v>
       </c>
       <c r="S26" t="n">
-        <v>3424.72395770128</v>
+        <v>3424.723957701281</v>
       </c>
       <c r="T26" t="n">
-        <v>3306.281825613527</v>
+        <v>3306.281825613529</v>
       </c>
       <c r="U26" t="n">
         <v>3154.974523052695</v>
@@ -6288,7 +6288,7 @@
         <v>635.5620256834795</v>
       </c>
       <c r="E27" t="n">
-        <v>488.5340157403507</v>
+        <v>488.5340157403508</v>
       </c>
       <c r="F27" t="n">
         <v>353.8402176902251</v>
@@ -6300,28 +6300,28 @@
         <v>128.2772553482318</v>
       </c>
       <c r="I27" t="n">
-        <v>69.92034100166292</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J27" t="n">
-        <v>69.92034100166292</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="K27" t="n">
-        <v>69.92034100166292</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="L27" t="n">
-        <v>497.7077276176076</v>
+        <v>497.7077276176077</v>
       </c>
       <c r="M27" t="n">
-        <v>954.3717783631929</v>
+        <v>954.3717783631935</v>
       </c>
       <c r="N27" t="n">
-        <v>1539.862142033961</v>
+        <v>1539.862142033962</v>
       </c>
       <c r="O27" t="n">
         <v>1999.963208398597</v>
       </c>
       <c r="P27" t="n">
-        <v>2356.555759195726</v>
+        <v>2356.555759195727</v>
       </c>
       <c r="Q27" t="n">
         <v>2550.756943940202</v>
@@ -6361,16 +6361,16 @@
         <v>435.0960012485933</v>
       </c>
       <c r="C28" t="n">
-        <v>369.0145279284112</v>
+        <v>369.0145279284113</v>
       </c>
       <c r="D28" t="n">
-        <v>319.4771309743116</v>
+        <v>319.4771309743117</v>
       </c>
       <c r="E28" t="n">
-        <v>271.0026129537681</v>
+        <v>271.0026129537682</v>
       </c>
       <c r="F28" t="n">
-        <v>222.0564541976829</v>
+        <v>222.056454197683</v>
       </c>
       <c r="G28" t="n">
         <v>156.9153196189694</v>
@@ -6379,28 +6379,28 @@
         <v>103.2476000974933</v>
       </c>
       <c r="I28" t="n">
-        <v>69.92034100166292</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J28" t="n">
-        <v>129.4480754567088</v>
+        <v>129.448075456708</v>
       </c>
       <c r="K28" t="n">
-        <v>292.3240720266716</v>
+        <v>292.3240720266708</v>
       </c>
       <c r="L28" t="n">
-        <v>529.9767315995739</v>
+        <v>529.976731599573</v>
       </c>
       <c r="M28" t="n">
-        <v>786.9494728320428</v>
+        <v>786.9494728320419</v>
       </c>
       <c r="N28" t="n">
-        <v>1043.45926282238</v>
+        <v>1043.459262822379</v>
       </c>
       <c r="O28" t="n">
         <v>1277.215367021226</v>
       </c>
       <c r="P28" t="n">
-        <v>1470.595406688841</v>
+        <v>1470.59540668884</v>
       </c>
       <c r="Q28" t="n">
         <v>1554.33387136288</v>
@@ -6418,13 +6418,13 @@
         <v>1101.15821767881</v>
       </c>
       <c r="V28" t="n">
-        <v>943.9574094553706</v>
+        <v>943.9574094553705</v>
       </c>
       <c r="W28" t="n">
-        <v>761.3355041909074</v>
+        <v>761.3355041909073</v>
       </c>
       <c r="X28" t="n">
-        <v>633.6175363044208</v>
+        <v>633.6175363044207</v>
       </c>
       <c r="Y28" t="n">
         <v>515.1168737148355</v>
@@ -6449,52 +6449,52 @@
         <v>964.5773097967885</v>
       </c>
       <c r="F29" t="n">
-        <v>653.9606153250966</v>
+        <v>653.9606153250965</v>
       </c>
       <c r="G29" t="n">
-        <v>341.935343835366</v>
+        <v>341.9353438353658</v>
       </c>
       <c r="H29" t="n">
         <v>118.2220468249039</v>
       </c>
       <c r="I29" t="n">
-        <v>69.92034100166292</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J29" t="n">
-        <v>187.3366846949149</v>
+        <v>288.6637597322124</v>
       </c>
       <c r="K29" t="n">
-        <v>596.8002826177371</v>
+        <v>698.1273576550345</v>
       </c>
       <c r="L29" t="n">
-        <v>1130.332581610935</v>
+        <v>1130.332581610936</v>
       </c>
       <c r="M29" t="n">
-        <v>1718.704328321546</v>
+        <v>1718.704328321547</v>
       </c>
       <c r="N29" t="n">
-        <v>2293.683758630804</v>
+        <v>2293.683758630805</v>
       </c>
       <c r="O29" t="n">
-        <v>2790.032529019166</v>
+        <v>2790.032529019167</v>
       </c>
       <c r="P29" t="n">
-        <v>3196.36557333999</v>
+        <v>3196.365573339991</v>
       </c>
       <c r="Q29" t="n">
-        <v>3449.871985516403</v>
+        <v>3449.871985516404</v>
       </c>
       <c r="R29" t="n">
-        <v>3496.017050083146</v>
+        <v>3496.017050083147</v>
       </c>
       <c r="S29" t="n">
-        <v>3424.72395770128</v>
+        <v>3424.723957701281</v>
       </c>
       <c r="T29" t="n">
-        <v>3306.281825613527</v>
+        <v>3306.281825613529</v>
       </c>
       <c r="U29" t="n">
-        <v>3154.974523052695</v>
+        <v>3154.974523052694</v>
       </c>
       <c r="V29" t="n">
         <v>2921.529745166773</v>
@@ -6525,7 +6525,7 @@
         <v>635.5620256834795</v>
       </c>
       <c r="E30" t="n">
-        <v>488.5340157403507</v>
+        <v>488.5340157403508</v>
       </c>
       <c r="F30" t="n">
         <v>353.8402176902251</v>
@@ -6537,28 +6537,28 @@
         <v>128.2772553482318</v>
       </c>
       <c r="I30" t="n">
-        <v>69.92034100166292</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J30" t="n">
-        <v>69.92034100166292</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="K30" t="n">
-        <v>69.92034100166292</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="L30" t="n">
-        <v>397.0275607114546</v>
+        <v>397.0275607114555</v>
       </c>
       <c r="M30" t="n">
-        <v>954.3717783631929</v>
+        <v>954.3717783631937</v>
       </c>
       <c r="N30" t="n">
-        <v>1539.862142033961</v>
+        <v>1539.862142033962</v>
       </c>
       <c r="O30" t="n">
         <v>1999.963208398597</v>
       </c>
       <c r="P30" t="n">
-        <v>2356.555759195726</v>
+        <v>2356.555759195727</v>
       </c>
       <c r="Q30" t="n">
         <v>2550.756943940202</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>435.0960012485933</v>
+        <v>435.0960012485931</v>
       </c>
       <c r="C31" t="n">
-        <v>369.0145279284113</v>
+        <v>369.0145279284111</v>
       </c>
       <c r="D31" t="n">
-        <v>319.4771309743116</v>
+        <v>319.4771309743115</v>
       </c>
       <c r="E31" t="n">
-        <v>271.0026129537682</v>
+        <v>271.0026129537681</v>
       </c>
       <c r="F31" t="n">
         <v>222.0564541976829</v>
       </c>
       <c r="G31" t="n">
-        <v>156.9153196189695</v>
+        <v>156.9153196189694</v>
       </c>
       <c r="H31" t="n">
         <v>103.2476000974933</v>
       </c>
       <c r="I31" t="n">
-        <v>69.92034100166292</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J31" t="n">
-        <v>129.448075456708</v>
+        <v>129.4480754567082</v>
       </c>
       <c r="K31" t="n">
-        <v>292.3240720266708</v>
+        <v>292.324072026671</v>
       </c>
       <c r="L31" t="n">
-        <v>529.9767315995731</v>
+        <v>529.9767315995732</v>
       </c>
       <c r="M31" t="n">
-        <v>786.9494728320424</v>
+        <v>786.9494728320421</v>
       </c>
       <c r="N31" t="n">
-        <v>1043.45926282238</v>
+        <v>1043.459262822379</v>
       </c>
       <c r="O31" t="n">
         <v>1277.215367021226</v>
@@ -6649,22 +6649,22 @@
         <v>1413.402053486826</v>
       </c>
       <c r="T31" t="n">
-        <v>1284.800645453284</v>
+        <v>1284.800645453283</v>
       </c>
       <c r="U31" t="n">
         <v>1101.15821767881</v>
       </c>
       <c r="V31" t="n">
-        <v>943.9574094553706</v>
+        <v>943.9574094553702</v>
       </c>
       <c r="W31" t="n">
-        <v>761.3355041909074</v>
+        <v>761.335504190907</v>
       </c>
       <c r="X31" t="n">
-        <v>633.6175363044208</v>
+        <v>633.6175363044205</v>
       </c>
       <c r="Y31" t="n">
-        <v>515.1168737148355</v>
+        <v>515.1168737148353</v>
       </c>
     </row>
     <row r="32">
@@ -6683,40 +6683,40 @@
         <v>1255.828533472544</v>
       </c>
       <c r="E32" t="n">
-        <v>964.5773097967882</v>
+        <v>964.5773097967883</v>
       </c>
       <c r="F32" t="n">
-        <v>653.9606153250962</v>
+        <v>653.9606153250963</v>
       </c>
       <c r="G32" t="n">
-        <v>341.9353438353656</v>
+        <v>341.9353438353658</v>
       </c>
       <c r="H32" t="n">
-        <v>118.2220468249038</v>
+        <v>118.2220468249039</v>
       </c>
       <c r="I32" t="n">
-        <v>69.92034100166292</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J32" t="n">
-        <v>288.6637597322125</v>
+        <v>288.6637597322124</v>
       </c>
       <c r="K32" t="n">
-        <v>596.8002826177359</v>
+        <v>698.1273576550346</v>
       </c>
       <c r="L32" t="n">
-        <v>1130.332581610934</v>
+        <v>1231.659656648232</v>
       </c>
       <c r="M32" t="n">
-        <v>1718.704328321545</v>
+        <v>1820.031403358843</v>
       </c>
       <c r="N32" t="n">
-        <v>2293.683758630803</v>
+        <v>2395.010833668101</v>
       </c>
       <c r="O32" t="n">
-        <v>2790.032529019165</v>
+        <v>2891.359604056463</v>
       </c>
       <c r="P32" t="n">
-        <v>3196.36557333999</v>
+        <v>3297.692648377288</v>
       </c>
       <c r="Q32" t="n">
         <v>3449.871985516403</v>
@@ -6725,10 +6725,10 @@
         <v>3496.017050083146</v>
       </c>
       <c r="S32" t="n">
-        <v>3424.72395770128</v>
+        <v>3424.723957701281</v>
       </c>
       <c r="T32" t="n">
-        <v>3306.281825613528</v>
+        <v>3306.281825613527</v>
       </c>
       <c r="U32" t="n">
         <v>3154.974523052694</v>
@@ -6743,7 +6743,7 @@
         <v>2384.033666982143</v>
       </c>
       <c r="Y32" t="n">
-        <v>2094.026307776119</v>
+        <v>2094.026307776118</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>635.5620256834795</v>
       </c>
       <c r="E33" t="n">
-        <v>488.5340157403507</v>
+        <v>488.5340157403508</v>
       </c>
       <c r="F33" t="n">
         <v>353.8402176902251</v>
@@ -6774,28 +6774,28 @@
         <v>128.2772553482318</v>
       </c>
       <c r="I33" t="n">
-        <v>69.92034100166292</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J33" t="n">
-        <v>69.92034100166292</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="K33" t="n">
-        <v>69.92034100166292</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="L33" t="n">
-        <v>397.0275607114546</v>
+        <v>397.0275607114552</v>
       </c>
       <c r="M33" t="n">
-        <v>954.3717783631929</v>
+        <v>954.3717783631935</v>
       </c>
       <c r="N33" t="n">
-        <v>1539.862142033961</v>
+        <v>1539.862142033962</v>
       </c>
       <c r="O33" t="n">
         <v>1999.963208398597</v>
       </c>
       <c r="P33" t="n">
-        <v>2356.555759195726</v>
+        <v>2356.555759195727</v>
       </c>
       <c r="Q33" t="n">
         <v>2550.756943940202</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>435.0960012485926</v>
+        <v>435.0960012485932</v>
       </c>
       <c r="C34" t="n">
-        <v>369.0145279284106</v>
+        <v>369.0145279284112</v>
       </c>
       <c r="D34" t="n">
-        <v>319.4771309743111</v>
+        <v>319.4771309743115</v>
       </c>
       <c r="E34" t="n">
-        <v>271.0026129537677</v>
+        <v>271.0026129537681</v>
       </c>
       <c r="F34" t="n">
-        <v>222.0564541976826</v>
+        <v>222.0564541976829</v>
       </c>
       <c r="G34" t="n">
-        <v>156.9153196189692</v>
+        <v>156.9153196189694</v>
       </c>
       <c r="H34" t="n">
-        <v>103.2476000974932</v>
+        <v>103.2476000974933</v>
       </c>
       <c r="I34" t="n">
-        <v>69.92034100166292</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J34" t="n">
-        <v>129.4480754567061</v>
+        <v>129.448075456708</v>
       </c>
       <c r="K34" t="n">
-        <v>292.324072026669</v>
+        <v>292.3240720266708</v>
       </c>
       <c r="L34" t="n">
-        <v>529.9767315995714</v>
+        <v>529.9767315995731</v>
       </c>
       <c r="M34" t="n">
-        <v>786.9494728320404</v>
+        <v>786.9494728320424</v>
       </c>
       <c r="N34" t="n">
-        <v>1043.459262822378</v>
+        <v>1043.45926282238</v>
       </c>
       <c r="O34" t="n">
-        <v>1277.215367021224</v>
+        <v>1277.215367021226</v>
       </c>
       <c r="P34" t="n">
-        <v>1470.595406688839</v>
+        <v>1470.59540668884</v>
       </c>
       <c r="Q34" t="n">
-        <v>1554.333871362878</v>
+        <v>1554.33387136288</v>
       </c>
       <c r="R34" t="n">
-        <v>1519.323011771654</v>
+        <v>1519.323011771655</v>
       </c>
       <c r="S34" t="n">
-        <v>1413.402053486825</v>
+        <v>1413.402053486826</v>
       </c>
       <c r="T34" t="n">
-        <v>1284.800645453283</v>
+        <v>1284.800645453284</v>
       </c>
       <c r="U34" t="n">
-        <v>1101.158217678809</v>
+        <v>1101.15821767881</v>
       </c>
       <c r="V34" t="n">
-        <v>943.9574094553695</v>
+        <v>943.9574094553701</v>
       </c>
       <c r="W34" t="n">
-        <v>761.3355041909064</v>
+        <v>761.3355041909069</v>
       </c>
       <c r="X34" t="n">
-        <v>633.6175363044199</v>
+        <v>633.6175363044204</v>
       </c>
       <c r="Y34" t="n">
-        <v>515.1168737148347</v>
+        <v>515.1168737148354</v>
       </c>
     </row>
     <row r="35">
@@ -6920,46 +6920,46 @@
         <v>989.7116209018759</v>
       </c>
       <c r="E35" t="n">
-        <v>749.0539373442186</v>
+        <v>749.0539373442189</v>
       </c>
       <c r="F35" t="n">
-        <v>489.0307829906254</v>
+        <v>489.0307829906253</v>
       </c>
       <c r="G35" t="n">
         <v>227.5990516189933</v>
       </c>
       <c r="H35" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="I35" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="J35" t="n">
         <v>171.7485537137827</v>
       </c>
       <c r="K35" t="n">
-        <v>479.7379918932082</v>
+        <v>479.7379918932081</v>
       </c>
       <c r="L35" t="n">
-        <v>911.7961311430091</v>
+        <v>911.796131143009</v>
       </c>
       <c r="M35" t="n">
-        <v>1398.693718110224</v>
+        <v>1398.693718110223</v>
       </c>
       <c r="N35" t="n">
         <v>1872.198988676085</v>
       </c>
       <c r="O35" t="n">
-        <v>2267.073599321051</v>
+        <v>2267.07359932105</v>
       </c>
       <c r="P35" t="n">
         <v>2571.932483898478</v>
       </c>
       <c r="Q35" t="n">
-        <v>2723.964736331494</v>
+        <v>2723.964736331493</v>
       </c>
       <c r="R35" t="n">
-        <v>2723.964736331494</v>
+        <v>2723.964736331493</v>
       </c>
       <c r="S35" t="n">
         <v>2703.265184067727</v>
@@ -6968,7 +6968,7 @@
         <v>2635.416592098073</v>
       </c>
       <c r="U35" t="n">
-        <v>2534.702829655338</v>
+        <v>2534.702829655337</v>
       </c>
       <c r="V35" t="n">
         <v>2351.851591887515</v>
@@ -7011,19 +7011,19 @@
         <v>112.8362090731988</v>
       </c>
       <c r="I36" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="J36" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="K36" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="L36" t="n">
-        <v>381.5865144364212</v>
+        <v>381.5865144364213</v>
       </c>
       <c r="M36" t="n">
-        <v>938.9307320881595</v>
+        <v>938.9307320881596</v>
       </c>
       <c r="N36" t="n">
         <v>1524.421095758928</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>87.58900179270609</v>
+        <v>107.3029779201078</v>
       </c>
       <c r="C37" t="n">
-        <v>72.1010685906225</v>
+        <v>91.81504471802427</v>
       </c>
       <c r="D37" t="n">
-        <v>72.1010685906225</v>
+        <v>91.81504471802427</v>
       </c>
       <c r="E37" t="n">
-        <v>72.1010685906225</v>
+        <v>72.10106859062243</v>
       </c>
       <c r="F37" t="n">
-        <v>72.1010685906225</v>
+        <v>72.10106859062243</v>
       </c>
       <c r="G37" t="n">
-        <v>57.55347413000757</v>
+        <v>57.55347413000753</v>
       </c>
       <c r="H37" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="I37" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="J37" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="K37" t="n">
         <v>115.881131553196</v>
@@ -7102,43 +7102,43 @@
         <v>252.0596313827016</v>
       </c>
       <c r="M37" t="n">
-        <v>407.5582128717739</v>
+        <v>407.5582128717738</v>
       </c>
       <c r="N37" t="n">
-        <v>562.5938431187143</v>
+        <v>562.5938431187142</v>
       </c>
       <c r="O37" t="n">
-        <v>694.8757875741642</v>
+        <v>694.875787574164</v>
       </c>
       <c r="P37" t="n">
-        <v>786.7816674983818</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="Q37" t="n">
-        <v>768.6858659787845</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="R37" t="n">
-        <v>768.6858659787845</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="S37" t="n">
-        <v>713.3584478120541</v>
+        <v>731.4542493316513</v>
       </c>
       <c r="T37" t="n">
-        <v>633.7324052888057</v>
+        <v>653.4463814162073</v>
       </c>
       <c r="U37" t="n">
-        <v>500.6835176324307</v>
+        <v>520.3974937598323</v>
       </c>
       <c r="V37" t="n">
-        <v>394.0762495270894</v>
+        <v>413.7902256544911</v>
       </c>
       <c r="W37" t="n">
-        <v>262.0478843807247</v>
+        <v>281.7618605081263</v>
       </c>
       <c r="X37" t="n">
-        <v>184.9234566123366</v>
+        <v>204.6374327397382</v>
       </c>
       <c r="Y37" t="n">
-        <v>117.0163341408498</v>
+        <v>136.7303102682515</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1436.213271669373</v>
+        <v>1436.213271669372</v>
       </c>
       <c r="C38" t="n">
-        <v>1208.407549338417</v>
+        <v>1208.407549338416</v>
       </c>
       <c r="D38" t="n">
-        <v>989.7116209018764</v>
+        <v>989.7116209018757</v>
       </c>
       <c r="E38" t="n">
-        <v>749.0539373442191</v>
+        <v>749.0539373442186</v>
       </c>
       <c r="F38" t="n">
-        <v>489.0307829906255</v>
+        <v>489.0307829906252</v>
       </c>
       <c r="G38" t="n">
         <v>227.5990516189933</v>
       </c>
       <c r="H38" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662986</v>
       </c>
       <c r="I38" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662986</v>
       </c>
       <c r="J38" t="n">
-        <v>171.7485537137825</v>
+        <v>171.7485537137826</v>
       </c>
       <c r="K38" t="n">
-        <v>479.7379918932079</v>
+        <v>479.7379918932072</v>
       </c>
       <c r="L38" t="n">
-        <v>911.7961311430089</v>
+        <v>911.7961311430081</v>
       </c>
       <c r="M38" t="n">
         <v>1398.693718110223</v>
       </c>
       <c r="N38" t="n">
-        <v>1872.198988676085</v>
+        <v>1872.198988676084</v>
       </c>
       <c r="O38" t="n">
-        <v>2267.07359932105</v>
+        <v>2267.073599321049</v>
       </c>
       <c r="P38" t="n">
-        <v>2571.932483898478</v>
+        <v>2571.932483898477</v>
       </c>
       <c r="Q38" t="n">
-        <v>2723.964736331494</v>
+        <v>2723.964736331493</v>
       </c>
       <c r="R38" t="n">
-        <v>2723.964736331494</v>
+        <v>2723.964736331493</v>
       </c>
       <c r="S38" t="n">
-        <v>2703.265184067727</v>
+        <v>2703.265184067726</v>
       </c>
       <c r="T38" t="n">
-        <v>2635.416592098073</v>
+        <v>2635.416592098072</v>
       </c>
       <c r="U38" t="n">
-        <v>2534.702829655338</v>
+        <v>2534.702829655337</v>
       </c>
       <c r="V38" t="n">
         <v>2351.851591887515</v>
       </c>
       <c r="W38" t="n">
-        <v>2143.444698081353</v>
+        <v>2143.444698081352</v>
       </c>
       <c r="X38" t="n">
-        <v>1915.542593939082</v>
+        <v>1915.542593939081</v>
       </c>
       <c r="Y38" t="n">
-        <v>1676.128774851156</v>
+        <v>1676.128774851155</v>
       </c>
     </row>
     <row r="39">
@@ -7248,19 +7248,19 @@
         <v>112.8362090731988</v>
       </c>
       <c r="I39" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662986</v>
       </c>
       <c r="J39" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662986</v>
       </c>
       <c r="K39" t="n">
         <v>330.0537850589848</v>
       </c>
       <c r="L39" t="n">
-        <v>381.5865144364212</v>
+        <v>381.5865144364213</v>
       </c>
       <c r="M39" t="n">
-        <v>938.9307320881595</v>
+        <v>938.9307320881596</v>
       </c>
       <c r="N39" t="n">
         <v>1524.421095758928</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>87.58900179270609</v>
+        <v>107.3029779201078</v>
       </c>
       <c r="C40" t="n">
-        <v>72.1010685906225</v>
+        <v>72.10106859062242</v>
       </c>
       <c r="D40" t="n">
-        <v>72.1010685906225</v>
+        <v>72.10106859062242</v>
       </c>
       <c r="E40" t="n">
-        <v>72.1010685906225</v>
+        <v>72.10106859062242</v>
       </c>
       <c r="F40" t="n">
-        <v>72.1010685906225</v>
+        <v>72.10106859062242</v>
       </c>
       <c r="G40" t="n">
-        <v>57.55347413000757</v>
+        <v>57.55347413000752</v>
       </c>
       <c r="H40" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662986</v>
       </c>
       <c r="I40" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662986</v>
       </c>
       <c r="J40" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662986</v>
       </c>
       <c r="K40" t="n">
         <v>115.881131553196</v>
@@ -7339,31 +7339,31 @@
         <v>252.0596313827016</v>
       </c>
       <c r="M40" t="n">
-        <v>407.5582128717739</v>
+        <v>407.5582128717738</v>
       </c>
       <c r="N40" t="n">
-        <v>562.5938431187143</v>
+        <v>562.5938431187142</v>
       </c>
       <c r="O40" t="n">
-        <v>694.8757875741642</v>
+        <v>694.875787574164</v>
       </c>
       <c r="P40" t="n">
-        <v>786.7816674983818</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="Q40" t="n">
-        <v>786.7816674983818</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="R40" t="n">
-        <v>786.7816674983818</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="S40" t="n">
-        <v>731.4542493316515</v>
+        <v>731.4542493316513</v>
       </c>
       <c r="T40" t="n">
-        <v>653.4463814162074</v>
+        <v>653.4463814162073</v>
       </c>
       <c r="U40" t="n">
-        <v>520.3974937598324</v>
+        <v>520.3974937598323</v>
       </c>
       <c r="V40" t="n">
         <v>413.7902256544911</v>
@@ -7372,10 +7372,10 @@
         <v>281.7618605081263</v>
       </c>
       <c r="X40" t="n">
-        <v>184.9234566123366</v>
+        <v>204.6374327397382</v>
       </c>
       <c r="Y40" t="n">
-        <v>117.0163341408498</v>
+        <v>136.7303102682515</v>
       </c>
     </row>
     <row r="41">
@@ -7388,16 +7388,16 @@
         <v>1436.213271669372</v>
       </c>
       <c r="C41" t="n">
-        <v>1208.407549338415</v>
+        <v>1208.407549338416</v>
       </c>
       <c r="D41" t="n">
-        <v>989.7116209018752</v>
+        <v>989.7116209018757</v>
       </c>
       <c r="E41" t="n">
-        <v>749.0539373442182</v>
+        <v>749.0539373442186</v>
       </c>
       <c r="F41" t="n">
-        <v>489.0307829906246</v>
+        <v>489.0307829906251</v>
       </c>
       <c r="G41" t="n">
         <v>227.5990516189934</v>
@@ -7412,10 +7412,10 @@
         <v>171.7485537137827</v>
       </c>
       <c r="K41" t="n">
-        <v>479.7379918932079</v>
+        <v>479.7379918932081</v>
       </c>
       <c r="L41" t="n">
-        <v>911.7961311430089</v>
+        <v>911.796131143009</v>
       </c>
       <c r="M41" t="n">
         <v>1398.693718110223</v>
@@ -7436,13 +7436,13 @@
         <v>2723.964736331494</v>
       </c>
       <c r="S41" t="n">
-        <v>2703.265184067726</v>
+        <v>2703.265184067727</v>
       </c>
       <c r="T41" t="n">
         <v>2635.416592098073</v>
       </c>
       <c r="U41" t="n">
-        <v>2534.702829655337</v>
+        <v>2534.702829655338</v>
       </c>
       <c r="V41" t="n">
         <v>2351.851591887515</v>
@@ -7451,10 +7451,10 @@
         <v>2143.444698081352</v>
       </c>
       <c r="X41" t="n">
-        <v>1915.542593939081</v>
+        <v>1915.542593939082</v>
       </c>
       <c r="Y41" t="n">
-        <v>1676.128774851155</v>
+        <v>1676.128774851156</v>
       </c>
     </row>
     <row r="42">
@@ -7491,13 +7491,13 @@
         <v>54.47929472662988</v>
       </c>
       <c r="K42" t="n">
-        <v>330.0537850589848</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="L42" t="n">
-        <v>381.5865144364212</v>
+        <v>381.5865144364213</v>
       </c>
       <c r="M42" t="n">
-        <v>938.9307320881595</v>
+        <v>938.9307320881596</v>
       </c>
       <c r="N42" t="n">
         <v>1524.421095758928</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>87.58900179270617</v>
+        <v>107.3029779201075</v>
       </c>
       <c r="C43" t="n">
-        <v>72.10106859062256</v>
+        <v>91.81504471802393</v>
       </c>
       <c r="D43" t="n">
         <v>72.10106859062256</v>
@@ -7600,19 +7600,19 @@
         <v>653.4463814162073</v>
       </c>
       <c r="U43" t="n">
-        <v>500.6835176324309</v>
+        <v>520.3974937598323</v>
       </c>
       <c r="V43" t="n">
-        <v>394.0762495270897</v>
+        <v>413.790225654491</v>
       </c>
       <c r="W43" t="n">
-        <v>262.0478843807248</v>
+        <v>281.7618605081262</v>
       </c>
       <c r="X43" t="n">
-        <v>184.9234566123367</v>
+        <v>204.6374327397381</v>
       </c>
       <c r="Y43" t="n">
-        <v>117.0163341408499</v>
+        <v>136.7303102682513</v>
       </c>
     </row>
     <row r="44">
@@ -7631,13 +7631,13 @@
         <v>989.7116209018759</v>
       </c>
       <c r="E44" t="n">
-        <v>749.0539373442186</v>
+        <v>749.0539373442189</v>
       </c>
       <c r="F44" t="n">
         <v>489.0307829906254</v>
       </c>
       <c r="G44" t="n">
-        <v>227.5990516189933</v>
+        <v>227.5990516189934</v>
       </c>
       <c r="H44" t="n">
         <v>54.47929472662988</v>
@@ -7652,7 +7652,7 @@
         <v>479.7379918932082</v>
       </c>
       <c r="L44" t="n">
-        <v>911.7961311430091</v>
+        <v>911.7961311430092</v>
       </c>
       <c r="M44" t="n">
         <v>1398.693718110224</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>87.58900179270609</v>
+        <v>107.3029779201077</v>
       </c>
       <c r="C46" t="n">
-        <v>72.1010685906225</v>
+        <v>72.10106859062256</v>
       </c>
       <c r="D46" t="n">
-        <v>72.1010685906225</v>
+        <v>72.10106859062256</v>
       </c>
       <c r="E46" t="n">
-        <v>72.1010685906225</v>
+        <v>72.10106859062256</v>
       </c>
       <c r="F46" t="n">
-        <v>72.1010685906225</v>
+        <v>72.10106859062256</v>
       </c>
       <c r="G46" t="n">
-        <v>57.55347413000757</v>
+        <v>57.5534741300076</v>
       </c>
       <c r="H46" t="n">
         <v>54.47929472662988</v>
@@ -7807,31 +7807,31 @@
         <v>54.47929472662988</v>
       </c>
       <c r="K46" t="n">
-        <v>115.881131553196</v>
+        <v>115.8811315531961</v>
       </c>
       <c r="L46" t="n">
         <v>252.0596313827016</v>
       </c>
       <c r="M46" t="n">
-        <v>407.5582128717739</v>
+        <v>407.558212871774</v>
       </c>
       <c r="N46" t="n">
-        <v>562.5938431187143</v>
+        <v>562.5938431187144</v>
       </c>
       <c r="O46" t="n">
-        <v>694.8757875741642</v>
+        <v>694.8757875741643</v>
       </c>
       <c r="P46" t="n">
-        <v>786.7816674983818</v>
+        <v>786.7816674983819</v>
       </c>
       <c r="Q46" t="n">
-        <v>786.7816674983818</v>
+        <v>786.7816674983819</v>
       </c>
       <c r="R46" t="n">
-        <v>786.7816674983818</v>
+        <v>786.7816674983819</v>
       </c>
       <c r="S46" t="n">
-        <v>731.4542493316515</v>
+        <v>731.4542493316516</v>
       </c>
       <c r="T46" t="n">
         <v>653.4463814162074</v>
@@ -7849,7 +7849,7 @@
         <v>204.6374327397382</v>
       </c>
       <c r="Y46" t="n">
-        <v>117.0163341408498</v>
+        <v>136.7303102682514</v>
       </c>
     </row>
   </sheetData>
@@ -8690,7 +8690,7 @@
         <v>101.3718027669759</v>
       </c>
       <c r="K11" t="n">
-        <v>349.2884508079969</v>
+        <v>349.2884508079972</v>
       </c>
       <c r="L11" t="n">
         <v>542.9595789155856</v>
@@ -8766,13 +8766,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>75.82029131472582</v>
+        <v>75.82029131472584</v>
       </c>
       <c r="K12" t="n">
-        <v>65.44673707356947</v>
+        <v>65.44673707356948</v>
       </c>
       <c r="L12" t="n">
-        <v>380.3953106054539</v>
+        <v>380.3953106054545</v>
       </c>
       <c r="M12" t="n">
         <v>605.4165828749999</v>
@@ -8927,7 +8927,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
-        <v>230.8346538512769</v>
+        <v>230.8346538512781</v>
       </c>
       <c r="L14" t="n">
         <v>542.9595789155856</v>
@@ -9003,13 +9003,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>75.82029131472582</v>
+        <v>75.82029131472584</v>
       </c>
       <c r="K15" t="n">
-        <v>65.44673707356947</v>
+        <v>65.44673707356948</v>
       </c>
       <c r="L15" t="n">
-        <v>380.3953106054539</v>
+        <v>380.3953106054545</v>
       </c>
       <c r="M15" t="n">
         <v>605.4165828749999</v>
@@ -9164,10 +9164,10 @@
         <v>101.3718027669759</v>
       </c>
       <c r="K17" t="n">
-        <v>421.3890363425141</v>
+        <v>349.2884508079981</v>
       </c>
       <c r="L17" t="n">
-        <v>470.8589933810684</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M17" t="n">
         <v>584.3675935406823</v>
@@ -9240,16 +9240,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>75.82029131472582</v>
+        <v>75.82029131472584</v>
       </c>
       <c r="K18" t="n">
-        <v>65.44673707356947</v>
+        <v>65.44673707356948</v>
       </c>
       <c r="L18" t="n">
-        <v>482.0924488944969</v>
+        <v>380.3953106054545</v>
       </c>
       <c r="M18" t="n">
-        <v>503.7194445859569</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
         <v>623.1450866466196</v>
@@ -9401,7 +9401,7 @@
         <v>101.3718027669759</v>
       </c>
       <c r="K20" t="n">
-        <v>349.2884508079969</v>
+        <v>349.2884508079981</v>
       </c>
       <c r="L20" t="n">
         <v>542.9595789155856</v>
@@ -9477,13 +9477,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>75.82029131472582</v>
+        <v>75.82029131472584</v>
       </c>
       <c r="K21" t="n">
-        <v>65.44673707356947</v>
+        <v>65.44673707356948</v>
       </c>
       <c r="L21" t="n">
-        <v>380.3953106054539</v>
+        <v>380.3953106054545</v>
       </c>
       <c r="M21" t="n">
         <v>605.4165828749999</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>219.8255997236959</v>
+        <v>101.3718027669759</v>
       </c>
       <c r="K23" t="n">
-        <v>230.8346538512769</v>
+        <v>349.2884508079981</v>
       </c>
       <c r="L23" t="n">
         <v>542.9595789155856</v>
@@ -9714,16 +9714,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425315</v>
+        <v>75.82029131472584</v>
       </c>
       <c r="K24" t="n">
-        <v>65.44673707356947</v>
+        <v>65.44673707356948</v>
       </c>
       <c r="L24" t="n">
-        <v>292.2972559776478</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>605.4165828749999</v>
+        <v>503.7194445859583</v>
       </c>
       <c r="N24" t="n">
         <v>623.1450866466196</v>
@@ -9951,16 +9951,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>75.82029131472582</v>
+        <v>75.82029131472584</v>
       </c>
       <c r="K27" t="n">
-        <v>65.44673707356947</v>
+        <v>65.44673707356948</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
-        <v>503.7194445859565</v>
+        <v>503.719444585957</v>
       </c>
       <c r="N27" t="n">
         <v>623.1450866466196</v>
@@ -10188,13 +10188,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>75.82029131472582</v>
+        <v>75.82029131472586</v>
       </c>
       <c r="K30" t="n">
-        <v>65.44673707356947</v>
+        <v>65.44673707356955</v>
       </c>
       <c r="L30" t="n">
-        <v>380.3953106054535</v>
+        <v>380.3953106054545</v>
       </c>
       <c r="M30" t="n">
         <v>605.4165828749999</v>
@@ -10425,13 +10425,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>75.82029131472582</v>
+        <v>75.82029131472584</v>
       </c>
       <c r="K33" t="n">
-        <v>65.44673707356947</v>
+        <v>65.44673707356948</v>
       </c>
       <c r="L33" t="n">
-        <v>380.3953106054535</v>
+        <v>380.395310605454</v>
       </c>
       <c r="M33" t="n">
         <v>605.4165828749999</v>
@@ -10662,13 +10662,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>75.82029131472582</v>
+        <v>75.82029131472584</v>
       </c>
       <c r="K36" t="n">
-        <v>65.44673707356947</v>
+        <v>65.44673707356948</v>
       </c>
       <c r="L36" t="n">
-        <v>380.3953106054531</v>
+        <v>380.3953106054532</v>
       </c>
       <c r="M36" t="n">
         <v>605.4165828749999</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>219.8255997236957</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
-        <v>421.3890363425141</v>
+        <v>421.3890363425134</v>
       </c>
       <c r="L38" t="n">
         <v>542.9595789155856</v>
@@ -10899,13 +10899,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>75.82029131472582</v>
+        <v>75.82029131472584</v>
       </c>
       <c r="K39" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
-        <v>102.0372395626704</v>
+        <v>102.0372395626705</v>
       </c>
       <c r="M39" t="n">
         <v>605.4165828749999</v>
@@ -11060,7 +11060,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K41" t="n">
-        <v>421.389036342514</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L41" t="n">
         <v>542.9595789155856</v>
@@ -11136,13 +11136,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>75.82029131472582</v>
+        <v>75.82029131472584</v>
       </c>
       <c r="K42" t="n">
-        <v>343.8048081163522</v>
+        <v>65.44673707356948</v>
       </c>
       <c r="L42" t="n">
-        <v>102.0372395626704</v>
+        <v>380.3953106054532</v>
       </c>
       <c r="M42" t="n">
         <v>605.4165828749999</v>
@@ -11373,10 +11373,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>75.82029131472582</v>
+        <v>75.82029131472581</v>
       </c>
       <c r="K45" t="n">
-        <v>65.44673707356947</v>
+        <v>65.44673707356944</v>
       </c>
       <c r="L45" t="n">
         <v>380.3953106054531</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>219.1856214016238</v>
+        <v>193.077474349562</v>
       </c>
       <c r="E11" t="n">
         <v>301.8407303564023</v>
@@ -23270,13 +23270,13 @@
         <v>321.0125464443795</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>322.4070376922377</v>
       </c>
       <c r="H11" t="n">
-        <v>234.9781829577617</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>61.320707682413</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>78.92267750438464</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>62.54404190196303</v>
+        <v>7.327615946112303</v>
       </c>
       <c r="E13" t="n">
-        <v>61.49179175774248</v>
+        <v>61.4917917577425</v>
       </c>
       <c r="F13" t="n">
-        <v>61.95871608592878</v>
+        <v>61.95871608592881</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>77.99174215033071</v>
       </c>
       <c r="H13" t="n">
-        <v>56.98170535603622</v>
+        <v>66.63306124366584</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>46.49600542227651</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>259.9400217482024</v>
+        <v>259.9400217482016</v>
       </c>
       <c r="F14" t="n">
         <v>321.0125464443795</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>7.32761594611199</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>7.327615946111109</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>61.49179175774248</v>
+        <v>61.4917917577425</v>
       </c>
       <c r="F16" t="n">
-        <v>61.95871608592878</v>
+        <v>61.95871608592881</v>
       </c>
       <c r="G16" t="n">
-        <v>77.99174215033068</v>
+        <v>77.99174215033071</v>
       </c>
       <c r="H16" t="n">
-        <v>66.63306124366582</v>
+        <v>66.63306124366585</v>
       </c>
       <c r="I16" t="n">
-        <v>46.49600542227648</v>
+        <v>46.49600542227651</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1505408.394990314</v>
+        <v>1505408.394990315</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1505408.394990314</v>
+        <v>1505408.394990315</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1505408.394990314</v>
+        <v>1505408.394990315</v>
       </c>
     </row>
     <row r="10">
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>83547.74167613915</v>
+        <v>83547.74167613921</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>61543.83320915256</v>
+        <v>61543.83320915248</v>
       </c>
       <c r="M3" t="n">
-        <v>149683.3109415065</v>
+        <v>149683.3109415064</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>20455.48779561251</v>
+        <v>20455.48779561254</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26442,16 +26442,16 @@
         <v>309193.0084127064</v>
       </c>
       <c r="K4" t="n">
-        <v>309193.0084127064</v>
+        <v>309193.0084127065</v>
       </c>
       <c r="L4" t="n">
         <v>309193.0084127064</v>
       </c>
       <c r="M4" t="n">
-        <v>308176.3362657601</v>
+        <v>308176.3362657602</v>
       </c>
       <c r="N4" t="n">
-        <v>308176.3362657601</v>
+        <v>308176.3362657602</v>
       </c>
       <c r="O4" t="n">
         <v>308176.3362657601</v>
@@ -26479,31 +26479,31 @@
         <v>48881.83299975545</v>
       </c>
       <c r="F5" t="n">
-        <v>48881.83299975545</v>
+        <v>48881.83299975546</v>
       </c>
       <c r="G5" t="n">
-        <v>55349.24364233075</v>
+        <v>55349.24364233076</v>
       </c>
       <c r="H5" t="n">
         <v>55349.24364233075</v>
       </c>
       <c r="I5" t="n">
-        <v>55349.24364233075</v>
+        <v>55349.24364233077</v>
       </c>
       <c r="J5" t="n">
+        <v>64678.11138462555</v>
+      </c>
+      <c r="K5" t="n">
+        <v>64678.11138462554</v>
+      </c>
+      <c r="L5" t="n">
         <v>64678.11138462553</v>
-      </c>
-      <c r="K5" t="n">
-        <v>64678.11138462553</v>
-      </c>
-      <c r="L5" t="n">
-        <v>64678.11138462554</v>
       </c>
       <c r="M5" t="n">
         <v>57153.73105654695</v>
       </c>
       <c r="N5" t="n">
-        <v>57153.73105654695</v>
+        <v>57153.73105654694</v>
       </c>
       <c r="O5" t="n">
         <v>57153.73105654695</v>
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-435235.0064143077</v>
+        <v>-435239.3749867749</v>
       </c>
       <c r="C6" t="n">
-        <v>-435235.0064143077</v>
+        <v>-435239.3749867749</v>
       </c>
       <c r="D6" t="n">
-        <v>-435235.0064143077</v>
+        <v>-435239.3749867749</v>
       </c>
       <c r="E6" t="n">
-        <v>-671736.3326311731</v>
+        <v>-671982.1757871091</v>
       </c>
       <c r="F6" t="n">
-        <v>-303905.9931162017</v>
+        <v>-304151.8362721378</v>
       </c>
       <c r="G6" t="n">
         <v>-427843.7975260415</v>
@@ -26546,10 +26546,10 @@
         <v>-457418.8614734712</v>
       </c>
       <c r="K6" t="n">
-        <v>-373871.1197973319</v>
+        <v>-373871.119797332</v>
       </c>
       <c r="L6" t="n">
-        <v>-435414.9530064845</v>
+        <v>-435414.9530064844</v>
       </c>
       <c r="M6" t="n">
         <v>-515013.3782638136</v>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="F2" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="G2" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="H2" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="I2" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="J2" t="n">
         <v>102.4991512559563</v>
@@ -26713,7 +26713,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="L2" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="M2" t="n">
         <v>152.5867559728738</v>
@@ -26725,7 +26725,7 @@
         <v>152.5867559728737</v>
       </c>
       <c r="P2" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
     </row>
     <row r="3">
@@ -26762,7 +26762,7 @@
         <v>134.0206915791157</v>
       </c>
       <c r="K3" t="n">
-        <v>134.0206915791157</v>
+        <v>134.0206915791155</v>
       </c>
       <c r="L3" t="n">
         <v>134.0206915791157</v>
@@ -26777,7 +26777,7 @@
         <v>134.0206915791157</v>
       </c>
       <c r="P3" t="n">
-        <v>134.0206915791157</v>
+        <v>134.0206915791158</v>
       </c>
     </row>
     <row r="4">
@@ -26799,31 +26799,31 @@
         <v>632.8664803414641</v>
       </c>
       <c r="F4" t="n">
-        <v>632.8664803414641</v>
+        <v>632.8664803414642</v>
       </c>
       <c r="G4" t="n">
-        <v>632.8664803414641</v>
+        <v>632.8664803414642</v>
       </c>
       <c r="H4" t="n">
-        <v>632.8664803414641</v>
+        <v>632.8664803414642</v>
       </c>
       <c r="I4" t="n">
-        <v>632.8664803414641</v>
+        <v>632.8664803414644</v>
       </c>
       <c r="J4" t="n">
-        <v>874.0042625207865</v>
+        <v>874.0042625207867</v>
       </c>
       <c r="K4" t="n">
-        <v>874.0042625207865</v>
+        <v>874.0042625207867</v>
       </c>
       <c r="L4" t="n">
-        <v>874.0042625207865</v>
+        <v>874.0042625207866</v>
       </c>
       <c r="M4" t="n">
-        <v>680.9911840828735</v>
+        <v>680.9911840828734</v>
       </c>
       <c r="N4" t="n">
-        <v>680.9911840828735</v>
+        <v>680.9911840828732</v>
       </c>
       <c r="O4" t="n">
         <v>680.9911840828735</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,25 +26929,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.56935974451567</v>
+        <v>25.56935974451574</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>76.9297915114407</v>
+        <v>76.9297915114406</v>
       </c>
       <c r="M2" t="n">
-        <v>50.0876047169174</v>
+        <v>50.08760471691744</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.56935974451564</v>
+        <v>25.56935974451568</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>439.8534019035511</v>
+        <v>439.8534019035509</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.56935974451567</v>
+        <v>25.56935974451574</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
     </row>
     <row r="3">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="C11" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="D11" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="E11" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="F11" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="G11" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="H11" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="I11" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>55.8879749259127</v>
+        <v>55.88797492591272</v>
       </c>
       <c r="S11" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="T11" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="U11" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="V11" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="W11" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="X11" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="Y11" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="C13" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="D13" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="E13" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="F13" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="G13" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="H13" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="I13" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="J13" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="K13" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="L13" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="M13" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="N13" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="O13" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="P13" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="R13" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="S13" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="T13" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="U13" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="V13" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="W13" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="X13" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="Y13" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="C14" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="D14" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="E14" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="F14" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="G14" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="H14" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="I14" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>55.8879749259127</v>
+        <v>55.88797492591272</v>
       </c>
       <c r="S14" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="T14" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="U14" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="V14" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="W14" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="X14" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="Y14" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="C16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="D16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="E16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="F16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="G16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="H16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="I16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="J16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="K16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="L16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="M16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="N16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="O16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="P16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="R16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="S16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="T16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="U16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="V16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="W16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="X16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="Y16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="C17" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="D17" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="E17" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="F17" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="G17" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="H17" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="I17" t="n">
         <v>150.3178400209649</v>
@@ -28609,28 +28609,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>55.8879749259127</v>
+        <v>55.88797492591272</v>
       </c>
       <c r="S17" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="T17" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="U17" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="V17" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="W17" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="X17" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="Y17" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
     </row>
     <row r="18">
@@ -28649,7 +28649,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -28719,10 +28719,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="C19" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
@@ -28734,7 +28734,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="H19" t="n">
         <v>155.6301935822177</v>
@@ -28743,7 +28743,7 @@
         <v>135.4931377608283</v>
       </c>
       <c r="J19" t="n">
-        <v>42.37012655389059</v>
+        <v>42.3701265538906</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.91484350440138</v>
+        <v>17.91484350440139</v>
       </c>
       <c r="R19" t="n">
         <v>137.1599022512687</v>
       </c>
       <c r="S19" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="T19" t="n">
-        <v>9.964971103333852</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="U19" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="V19" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="W19" t="n">
-        <v>165.9269238499925</v>
+        <v>9.964971103334108</v>
       </c>
       <c r="X19" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="Y19" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="C20" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="D20" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="E20" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="F20" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="G20" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="H20" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="I20" t="n">
         <v>150.3178400209649</v>
@@ -28846,28 +28846,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>55.8879749259127</v>
+        <v>55.88797492591272</v>
       </c>
       <c r="S20" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="T20" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="U20" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="V20" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="W20" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="X20" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="Y20" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
     </row>
     <row r="21">
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="C22" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -28971,7 +28971,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="H22" t="n">
         <v>155.6301935822177</v>
@@ -28980,7 +28980,7 @@
         <v>135.4931377608283</v>
       </c>
       <c r="J22" t="n">
-        <v>42.37012655389059</v>
+        <v>42.3701265538906</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,31 +29001,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>17.91484350440139</v>
       </c>
       <c r="R22" t="n">
         <v>137.1599022512687</v>
       </c>
       <c r="S22" t="n">
-        <v>27.87981460773511</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="T22" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="U22" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="V22" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="W22" t="n">
-        <v>165.9269238499925</v>
+        <v>9.964971103334562</v>
       </c>
       <c r="X22" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="Y22" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="C23" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="D23" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="E23" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="F23" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="G23" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="H23" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="I23" t="n">
         <v>150.3178400209649</v>
@@ -29083,28 +29083,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>55.8879749259127</v>
+        <v>55.88797492591272</v>
       </c>
       <c r="S23" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="T23" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="U23" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="V23" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="W23" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="X23" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="Y23" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
     </row>
     <row r="24">
@@ -29193,10 +29193,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="C25" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
@@ -29208,7 +29208,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="H25" t="n">
         <v>155.6301935822177</v>
@@ -29217,7 +29217,7 @@
         <v>135.4931377608283</v>
       </c>
       <c r="J25" t="n">
-        <v>42.37012655389059</v>
+        <v>42.3701265538906</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,31 +29238,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.91484350440138</v>
+        <v>17.91484350440139</v>
       </c>
       <c r="R25" t="n">
         <v>137.1599022512687</v>
       </c>
       <c r="S25" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="T25" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="U25" t="n">
-        <v>9.964971103333824</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="V25" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="W25" t="n">
-        <v>165.9269238499925</v>
+        <v>9.964971103334562</v>
       </c>
       <c r="X25" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="Y25" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
     </row>
     <row r="26">
@@ -29299,10 +29299,10 @@
         <v>102.4991512559563</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1485704102012164</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="L26" t="n">
-        <v>102.4991512559563</v>
+        <v>0.1485704102021828</v>
       </c>
       <c r="M26" t="n">
         <v>102.4991512559563</v>
@@ -29454,7 +29454,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="J28" t="n">
-        <v>102.4991512559571</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="K28" t="n">
         <v>102.4991512559563</v>
@@ -29533,13 +29533,13 @@
         <v>102.4991512559563</v>
       </c>
       <c r="J29" t="n">
-        <v>0.1485704102012591</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="K29" t="n">
         <v>102.4991512559563</v>
       </c>
       <c r="L29" t="n">
-        <v>102.4991512559563</v>
+        <v>0.1485704102026943</v>
       </c>
       <c r="M29" t="n">
         <v>102.4991512559563</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="C32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="D32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="E32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="F32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="G32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="H32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="I32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="J32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="K32" t="n">
-        <v>0.148570410199909</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="L32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="M32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="N32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="O32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="P32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="Q32" t="n">
-        <v>102.4991512559564</v>
+        <v>0.1485704102016996</v>
       </c>
       <c r="R32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="S32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="T32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="U32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="V32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="W32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="X32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="Y32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="C34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="D34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="E34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="F34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="G34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="H34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="I34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="J34" t="n">
-        <v>102.4991512559544</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="K34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="L34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="M34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="N34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="O34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="P34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="Q34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="R34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="S34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="T34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="U34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="V34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="W34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="X34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="Y34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
     </row>
     <row r="35">
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>55.8879749259127</v>
+        <v>55.88797492591272</v>
       </c>
       <c r="S35" t="n">
         <v>152.5867559728738</v>
@@ -30150,7 +30150,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>150.4889240962943</v>
+        <v>130.9720877301665</v>
       </c>
       <c r="F37" t="n">
         <v>150.9558484244806</v>
@@ -30165,7 +30165,7 @@
         <v>135.4931377608283</v>
       </c>
       <c r="J37" t="n">
-        <v>42.37012655389059</v>
+        <v>42.3701265538906</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>17.91484350440139</v>
       </c>
       <c r="R37" t="n">
         <v>137.1599022512687</v>
@@ -30195,7 +30195,7 @@
         <v>152.5867559728738</v>
       </c>
       <c r="T37" t="n">
-        <v>150.9847631111475</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="U37" t="n">
         <v>152.5867559728738</v>
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>55.8879749259127</v>
+        <v>55.88797492591272</v>
       </c>
       <c r="S38" t="n">
         <v>152.5867559728738</v>
@@ -30381,7 +30381,7 @@
         <v>152.5867559728738</v>
       </c>
       <c r="C40" t="n">
-        <v>152.5867559728738</v>
+        <v>133.0699196067459</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -30402,7 +30402,7 @@
         <v>135.4931377608283</v>
       </c>
       <c r="J40" t="n">
-        <v>42.37012655389059</v>
+        <v>42.3701265538906</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.91484350440138</v>
+        <v>17.91484350440139</v>
       </c>
       <c r="R40" t="n">
         <v>137.1599022512687</v>
@@ -30444,7 +30444,7 @@
         <v>152.5867559728738</v>
       </c>
       <c r="X40" t="n">
-        <v>133.0699196067461</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="Y40" t="n">
         <v>152.5867559728738</v>
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>55.8879749259127</v>
+        <v>55.88797492591272</v>
       </c>
       <c r="S41" t="n">
         <v>152.5867559728737</v>
@@ -30621,7 +30621,7 @@
         <v>152.5867559728737</v>
       </c>
       <c r="D43" t="n">
-        <v>151.5411742405149</v>
+        <v>132.0243378743875</v>
       </c>
       <c r="E43" t="n">
         <v>150.4889240962943</v>
@@ -30639,7 +30639,7 @@
         <v>135.4931377608283</v>
       </c>
       <c r="J43" t="n">
-        <v>42.37012655389059</v>
+        <v>42.3701265538906</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.91484350440138</v>
+        <v>17.91484350440139</v>
       </c>
       <c r="R43" t="n">
         <v>137.1599022512687</v>
@@ -30672,7 +30672,7 @@
         <v>152.5867559728737</v>
       </c>
       <c r="U43" t="n">
-        <v>133.0699196067465</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="V43" t="n">
         <v>152.5867559728737</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="C44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="D44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="E44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="F44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="G44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="H44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="I44" t="n">
         <v>150.3178400209649</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>55.8879749259127</v>
+        <v>55.88797492591269</v>
       </c>
       <c r="S44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="T44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="U44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="V44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="W44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="X44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="Y44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
     </row>
     <row r="45">
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="C46" t="n">
-        <v>152.5867559728738</v>
+        <v>133.0699196067463</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -30867,10 +30867,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="H46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="I46" t="n">
         <v>135.4931377608283</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>17.91484350440138</v>
+        <v>17.91484350440137</v>
       </c>
       <c r="R46" t="n">
         <v>137.1599022512687</v>
       </c>
       <c r="S46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="T46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="U46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="V46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="W46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="X46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="Y46" t="n">
-        <v>133.0699196067461</v>
+        <v>152.5867559728737</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5387766495642841</v>
+        <v>0.5387766495642837</v>
       </c>
       <c r="H11" t="n">
-        <v>5.517746362350225</v>
+        <v>5.517746362350223</v>
       </c>
       <c r="I11" t="n">
-        <v>20.77118678232708</v>
+        <v>20.77118678232707</v>
       </c>
       <c r="J11" t="n">
-        <v>45.72799466095669</v>
+        <v>45.72799466095667</v>
       </c>
       <c r="K11" t="n">
-        <v>68.53441023701285</v>
+        <v>68.53441023701282</v>
       </c>
       <c r="L11" t="n">
-        <v>85.02299612611583</v>
+        <v>85.02299612611579</v>
       </c>
       <c r="M11" t="n">
-        <v>94.60446536780465</v>
+        <v>94.60446536780461</v>
       </c>
       <c r="N11" t="n">
-        <v>96.13526452337918</v>
+        <v>96.13526452337915</v>
       </c>
       <c r="O11" t="n">
-        <v>90.77780421427433</v>
+        <v>90.77780421427428</v>
       </c>
       <c r="P11" t="n">
-        <v>77.47675567815605</v>
+        <v>77.47675567815602</v>
       </c>
       <c r="Q11" t="n">
-        <v>58.18181691563512</v>
+        <v>58.18181691563509</v>
       </c>
       <c r="R11" t="n">
-        <v>33.84392871319248</v>
+        <v>33.84392871319247</v>
       </c>
       <c r="S11" t="n">
         <v>12.27737290194613</v>
       </c>
       <c r="T11" t="n">
-        <v>2.358494783467655</v>
+        <v>2.358494783467653</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04310213196514271</v>
+        <v>0.0431021319651427</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2882709215097962</v>
+        <v>0.2882709215097961</v>
       </c>
       <c r="H12" t="n">
-        <v>2.784090215634084</v>
+        <v>2.784090215634083</v>
       </c>
       <c r="I12" t="n">
-        <v>9.925117253736405</v>
+        <v>9.925117253736399</v>
       </c>
       <c r="J12" t="n">
-        <v>27.23528035194088</v>
+        <v>27.23528035194087</v>
       </c>
       <c r="K12" t="n">
-        <v>46.54943209309722</v>
+        <v>46.5494320930972</v>
       </c>
       <c r="L12" t="n">
-        <v>62.59145600588798</v>
+        <v>62.59145600588796</v>
       </c>
       <c r="M12" t="n">
-        <v>73.04127691061808</v>
+        <v>73.04127691061804</v>
       </c>
       <c r="N12" t="n">
-        <v>74.97446216933949</v>
+        <v>74.97446216933945</v>
       </c>
       <c r="O12" t="n">
-        <v>68.58698543483294</v>
+        <v>68.58698543483291</v>
       </c>
       <c r="P12" t="n">
-        <v>55.04710254690134</v>
+        <v>55.04710254690131</v>
       </c>
       <c r="Q12" t="n">
-        <v>36.79753026149609</v>
+        <v>36.79753026149607</v>
       </c>
       <c r="R12" t="n">
         <v>17.89808405654682</v>
       </c>
       <c r="S12" t="n">
-        <v>5.354505932429762</v>
+        <v>5.354505932429761</v>
       </c>
       <c r="T12" t="n">
-        <v>1.161934109067994</v>
+        <v>1.161934109067993</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01896519220459186</v>
+        <v>0.01896519220459185</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2416766569459464</v>
+        <v>0.2416766569459463</v>
       </c>
       <c r="H13" t="n">
-        <v>2.148725186301234</v>
+        <v>2.148725186301233</v>
       </c>
       <c r="I13" t="n">
-        <v>7.267876192519918</v>
+        <v>7.267876192519915</v>
       </c>
       <c r="J13" t="n">
-        <v>17.08653964607841</v>
+        <v>17.0865396460784</v>
       </c>
       <c r="K13" t="n">
-        <v>28.07843341608358</v>
+        <v>28.07843341608357</v>
       </c>
       <c r="L13" t="n">
-        <v>35.93072770630916</v>
+        <v>35.93072770630915</v>
       </c>
       <c r="M13" t="n">
-        <v>37.88391450653594</v>
+        <v>37.88391450653592</v>
       </c>
       <c r="N13" t="n">
-        <v>36.9831196942829</v>
+        <v>36.98311969428288</v>
       </c>
       <c r="O13" t="n">
-        <v>34.15989692905069</v>
+        <v>34.15989692905067</v>
       </c>
       <c r="P13" t="n">
-        <v>29.22969312735336</v>
+        <v>29.22969312735335</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.23712442844648</v>
+        <v>20.23712442844647</v>
       </c>
       <c r="R13" t="n">
         <v>10.86666132049682</v>
       </c>
       <c r="S13" t="n">
-        <v>4.211765012412537</v>
+        <v>4.211765012412536</v>
       </c>
       <c r="T13" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01318236310614255</v>
+        <v>0.01318236310614254</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5387766495642841</v>
+        <v>0.5387766495642837</v>
       </c>
       <c r="H14" t="n">
-        <v>5.517746362350225</v>
+        <v>5.517746362350223</v>
       </c>
       <c r="I14" t="n">
-        <v>20.77118678232708</v>
+        <v>20.77118678232707</v>
       </c>
       <c r="J14" t="n">
-        <v>45.72799466095669</v>
+        <v>45.72799466095667</v>
       </c>
       <c r="K14" t="n">
-        <v>68.53441023701285</v>
+        <v>68.53441023701282</v>
       </c>
       <c r="L14" t="n">
-        <v>85.02299612611583</v>
+        <v>85.02299612611579</v>
       </c>
       <c r="M14" t="n">
-        <v>94.60446536780465</v>
+        <v>94.60446536780461</v>
       </c>
       <c r="N14" t="n">
-        <v>96.13526452337918</v>
+        <v>96.13526452337915</v>
       </c>
       <c r="O14" t="n">
-        <v>90.77780421427433</v>
+        <v>90.77780421427428</v>
       </c>
       <c r="P14" t="n">
-        <v>77.47675567815605</v>
+        <v>77.47675567815602</v>
       </c>
       <c r="Q14" t="n">
-        <v>58.18181691563512</v>
+        <v>58.18181691563509</v>
       </c>
       <c r="R14" t="n">
-        <v>33.84392871319248</v>
+        <v>33.84392871319247</v>
       </c>
       <c r="S14" t="n">
         <v>12.27737290194613</v>
       </c>
       <c r="T14" t="n">
-        <v>2.358494783467655</v>
+        <v>2.358494783467653</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04310213196514271</v>
+        <v>0.0431021319651427</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2882709215097962</v>
+        <v>0.2882709215097961</v>
       </c>
       <c r="H15" t="n">
-        <v>2.784090215634084</v>
+        <v>2.784090215634083</v>
       </c>
       <c r="I15" t="n">
-        <v>9.925117253736405</v>
+        <v>9.925117253736399</v>
       </c>
       <c r="J15" t="n">
-        <v>27.23528035194088</v>
+        <v>27.23528035194087</v>
       </c>
       <c r="K15" t="n">
-        <v>46.54943209309722</v>
+        <v>46.5494320930972</v>
       </c>
       <c r="L15" t="n">
-        <v>62.59145600588798</v>
+        <v>62.59145600588796</v>
       </c>
       <c r="M15" t="n">
-        <v>73.04127691061808</v>
+        <v>73.04127691061804</v>
       </c>
       <c r="N15" t="n">
-        <v>74.97446216933949</v>
+        <v>74.97446216933945</v>
       </c>
       <c r="O15" t="n">
-        <v>68.58698543483294</v>
+        <v>68.58698543483291</v>
       </c>
       <c r="P15" t="n">
-        <v>55.04710254690134</v>
+        <v>55.04710254690131</v>
       </c>
       <c r="Q15" t="n">
-        <v>36.79753026149609</v>
+        <v>36.79753026149607</v>
       </c>
       <c r="R15" t="n">
         <v>17.89808405654682</v>
       </c>
       <c r="S15" t="n">
-        <v>5.354505932429762</v>
+        <v>5.354505932429761</v>
       </c>
       <c r="T15" t="n">
-        <v>1.161934109067994</v>
+        <v>1.161934109067993</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01896519220459186</v>
+        <v>0.01896519220459185</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2416766569459464</v>
+        <v>0.2416766569459463</v>
       </c>
       <c r="H16" t="n">
-        <v>2.148725186301234</v>
+        <v>2.148725186301233</v>
       </c>
       <c r="I16" t="n">
-        <v>7.267876192519918</v>
+        <v>7.267876192519915</v>
       </c>
       <c r="J16" t="n">
-        <v>17.08653964607841</v>
+        <v>17.0865396460784</v>
       </c>
       <c r="K16" t="n">
-        <v>28.07843341608358</v>
+        <v>28.07843341608357</v>
       </c>
       <c r="L16" t="n">
-        <v>35.93072770630916</v>
+        <v>35.93072770630915</v>
       </c>
       <c r="M16" t="n">
-        <v>37.88391450653594</v>
+        <v>37.88391450653592</v>
       </c>
       <c r="N16" t="n">
-        <v>36.9831196942829</v>
+        <v>36.98311969428288</v>
       </c>
       <c r="O16" t="n">
-        <v>34.15989692905069</v>
+        <v>34.15989692905067</v>
       </c>
       <c r="P16" t="n">
-        <v>29.22969312735336</v>
+        <v>29.22969312735335</v>
       </c>
       <c r="Q16" t="n">
-        <v>20.23712442844648</v>
+        <v>20.23712442844647</v>
       </c>
       <c r="R16" t="n">
         <v>10.86666132049682</v>
       </c>
       <c r="S16" t="n">
-        <v>4.211765012412537</v>
+        <v>4.211765012412536</v>
       </c>
       <c r="T16" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01318236310614255</v>
+        <v>0.01318236310614254</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5387766495642841</v>
+        <v>0.5387766495642837</v>
       </c>
       <c r="H17" t="n">
-        <v>5.517746362350225</v>
+        <v>5.517746362350223</v>
       </c>
       <c r="I17" t="n">
-        <v>20.77118678232708</v>
+        <v>20.77118678232707</v>
       </c>
       <c r="J17" t="n">
-        <v>45.72799466095669</v>
+        <v>45.72799466095667</v>
       </c>
       <c r="K17" t="n">
-        <v>68.53441023701285</v>
+        <v>68.53441023701282</v>
       </c>
       <c r="L17" t="n">
-        <v>85.02299612611583</v>
+        <v>85.02299612611579</v>
       </c>
       <c r="M17" t="n">
-        <v>94.60446536780465</v>
+        <v>94.60446536780461</v>
       </c>
       <c r="N17" t="n">
-        <v>96.13526452337918</v>
+        <v>96.13526452337915</v>
       </c>
       <c r="O17" t="n">
-        <v>90.77780421427433</v>
+        <v>90.77780421427428</v>
       </c>
       <c r="P17" t="n">
-        <v>77.47675567815605</v>
+        <v>77.47675567815602</v>
       </c>
       <c r="Q17" t="n">
-        <v>58.18181691563512</v>
+        <v>58.18181691563509</v>
       </c>
       <c r="R17" t="n">
-        <v>33.84392871319248</v>
+        <v>33.84392871319247</v>
       </c>
       <c r="S17" t="n">
         <v>12.27737290194613</v>
       </c>
       <c r="T17" t="n">
-        <v>2.358494783467655</v>
+        <v>2.358494783467653</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04310213196514271</v>
+        <v>0.0431021319651427</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2882709215097962</v>
+        <v>0.2882709215097961</v>
       </c>
       <c r="H18" t="n">
-        <v>2.784090215634084</v>
+        <v>2.784090215634083</v>
       </c>
       <c r="I18" t="n">
-        <v>9.925117253736405</v>
+        <v>9.925117253736399</v>
       </c>
       <c r="J18" t="n">
-        <v>27.23528035194088</v>
+        <v>27.23528035194087</v>
       </c>
       <c r="K18" t="n">
-        <v>46.54943209309722</v>
+        <v>46.5494320930972</v>
       </c>
       <c r="L18" t="n">
-        <v>62.59145600588798</v>
+        <v>62.59145600588796</v>
       </c>
       <c r="M18" t="n">
-        <v>73.04127691061808</v>
+        <v>73.04127691061804</v>
       </c>
       <c r="N18" t="n">
-        <v>74.97446216933949</v>
+        <v>74.97446216933945</v>
       </c>
       <c r="O18" t="n">
-        <v>68.58698543483294</v>
+        <v>68.58698543483291</v>
       </c>
       <c r="P18" t="n">
-        <v>55.04710254690134</v>
+        <v>55.04710254690131</v>
       </c>
       <c r="Q18" t="n">
-        <v>36.79753026149609</v>
+        <v>36.79753026149607</v>
       </c>
       <c r="R18" t="n">
         <v>17.89808405654682</v>
       </c>
       <c r="S18" t="n">
-        <v>5.354505932429762</v>
+        <v>5.354505932429761</v>
       </c>
       <c r="T18" t="n">
-        <v>1.161934109067994</v>
+        <v>1.161934109067993</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01896519220459186</v>
+        <v>0.01896519220459185</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2416766569459464</v>
+        <v>0.2416766569459463</v>
       </c>
       <c r="H19" t="n">
-        <v>2.148725186301234</v>
+        <v>2.148725186301233</v>
       </c>
       <c r="I19" t="n">
-        <v>7.267876192519918</v>
+        <v>7.267876192519915</v>
       </c>
       <c r="J19" t="n">
-        <v>17.08653964607841</v>
+        <v>17.0865396460784</v>
       </c>
       <c r="K19" t="n">
-        <v>28.07843341608358</v>
+        <v>28.07843341608357</v>
       </c>
       <c r="L19" t="n">
-        <v>35.93072770630916</v>
+        <v>35.93072770630915</v>
       </c>
       <c r="M19" t="n">
-        <v>37.88391450653594</v>
+        <v>37.88391450653592</v>
       </c>
       <c r="N19" t="n">
-        <v>36.9831196942829</v>
+        <v>36.98311969428288</v>
       </c>
       <c r="O19" t="n">
-        <v>34.15989692905069</v>
+        <v>34.15989692905067</v>
       </c>
       <c r="P19" t="n">
-        <v>29.22969312735336</v>
+        <v>29.22969312735335</v>
       </c>
       <c r="Q19" t="n">
-        <v>20.23712442844648</v>
+        <v>20.23712442844647</v>
       </c>
       <c r="R19" t="n">
         <v>10.86666132049682</v>
       </c>
       <c r="S19" t="n">
-        <v>4.211765012412537</v>
+        <v>4.211765012412536</v>
       </c>
       <c r="T19" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01318236310614255</v>
+        <v>0.01318236310614254</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5387766495642841</v>
+        <v>0.5387766495642837</v>
       </c>
       <c r="H20" t="n">
-        <v>5.517746362350225</v>
+        <v>5.517746362350223</v>
       </c>
       <c r="I20" t="n">
-        <v>20.77118678232708</v>
+        <v>20.77118678232707</v>
       </c>
       <c r="J20" t="n">
-        <v>45.72799466095669</v>
+        <v>45.72799466095667</v>
       </c>
       <c r="K20" t="n">
-        <v>68.53441023701285</v>
+        <v>68.53441023701282</v>
       </c>
       <c r="L20" t="n">
-        <v>85.02299612611583</v>
+        <v>85.02299612611579</v>
       </c>
       <c r="M20" t="n">
-        <v>94.60446536780465</v>
+        <v>94.60446536780461</v>
       </c>
       <c r="N20" t="n">
-        <v>96.13526452337918</v>
+        <v>96.13526452337915</v>
       </c>
       <c r="O20" t="n">
-        <v>90.77780421427433</v>
+        <v>90.77780421427428</v>
       </c>
       <c r="P20" t="n">
-        <v>77.47675567815605</v>
+        <v>77.47675567815602</v>
       </c>
       <c r="Q20" t="n">
-        <v>58.18181691563512</v>
+        <v>58.18181691563509</v>
       </c>
       <c r="R20" t="n">
-        <v>33.84392871319248</v>
+        <v>33.84392871319247</v>
       </c>
       <c r="S20" t="n">
         <v>12.27737290194613</v>
       </c>
       <c r="T20" t="n">
-        <v>2.358494783467655</v>
+        <v>2.358494783467653</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04310213196514271</v>
+        <v>0.0431021319651427</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2882709215097962</v>
+        <v>0.2882709215097961</v>
       </c>
       <c r="H21" t="n">
-        <v>2.784090215634084</v>
+        <v>2.784090215634083</v>
       </c>
       <c r="I21" t="n">
-        <v>9.925117253736405</v>
+        <v>9.925117253736399</v>
       </c>
       <c r="J21" t="n">
-        <v>27.23528035194088</v>
+        <v>27.23528035194087</v>
       </c>
       <c r="K21" t="n">
-        <v>46.54943209309722</v>
+        <v>46.5494320930972</v>
       </c>
       <c r="L21" t="n">
-        <v>62.59145600588798</v>
+        <v>62.59145600588796</v>
       </c>
       <c r="M21" t="n">
-        <v>73.04127691061808</v>
+        <v>73.04127691061804</v>
       </c>
       <c r="N21" t="n">
-        <v>74.97446216933949</v>
+        <v>74.97446216933945</v>
       </c>
       <c r="O21" t="n">
-        <v>68.58698543483294</v>
+        <v>68.58698543483291</v>
       </c>
       <c r="P21" t="n">
-        <v>55.04710254690134</v>
+        <v>55.04710254690131</v>
       </c>
       <c r="Q21" t="n">
-        <v>36.79753026149609</v>
+        <v>36.79753026149607</v>
       </c>
       <c r="R21" t="n">
         <v>17.89808405654682</v>
       </c>
       <c r="S21" t="n">
-        <v>5.354505932429762</v>
+        <v>5.354505932429761</v>
       </c>
       <c r="T21" t="n">
-        <v>1.161934109067994</v>
+        <v>1.161934109067993</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01896519220459186</v>
+        <v>0.01896519220459185</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2416766569459464</v>
+        <v>0.2416766569459463</v>
       </c>
       <c r="H22" t="n">
-        <v>2.148725186301234</v>
+        <v>2.148725186301233</v>
       </c>
       <c r="I22" t="n">
-        <v>7.267876192519918</v>
+        <v>7.267876192519915</v>
       </c>
       <c r="J22" t="n">
-        <v>17.08653964607841</v>
+        <v>17.0865396460784</v>
       </c>
       <c r="K22" t="n">
-        <v>28.07843341608358</v>
+        <v>28.07843341608357</v>
       </c>
       <c r="L22" t="n">
-        <v>35.93072770630916</v>
+        <v>35.93072770630915</v>
       </c>
       <c r="M22" t="n">
-        <v>37.88391450653594</v>
+        <v>37.88391450653592</v>
       </c>
       <c r="N22" t="n">
-        <v>36.9831196942829</v>
+        <v>36.98311969428288</v>
       </c>
       <c r="O22" t="n">
-        <v>34.15989692905069</v>
+        <v>34.15989692905067</v>
       </c>
       <c r="P22" t="n">
-        <v>29.22969312735336</v>
+        <v>29.22969312735335</v>
       </c>
       <c r="Q22" t="n">
-        <v>20.23712442844648</v>
+        <v>20.23712442844647</v>
       </c>
       <c r="R22" t="n">
         <v>10.86666132049682</v>
       </c>
       <c r="S22" t="n">
-        <v>4.211765012412537</v>
+        <v>4.211765012412536</v>
       </c>
       <c r="T22" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01318236310614255</v>
+        <v>0.01318236310614254</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5387766495642841</v>
+        <v>0.5387766495642837</v>
       </c>
       <c r="H23" t="n">
-        <v>5.517746362350225</v>
+        <v>5.517746362350223</v>
       </c>
       <c r="I23" t="n">
-        <v>20.77118678232708</v>
+        <v>20.77118678232707</v>
       </c>
       <c r="J23" t="n">
-        <v>45.72799466095669</v>
+        <v>45.72799466095667</v>
       </c>
       <c r="K23" t="n">
-        <v>68.53441023701285</v>
+        <v>68.53441023701282</v>
       </c>
       <c r="L23" t="n">
-        <v>85.02299612611583</v>
+        <v>85.02299612611579</v>
       </c>
       <c r="M23" t="n">
-        <v>94.60446536780465</v>
+        <v>94.60446536780461</v>
       </c>
       <c r="N23" t="n">
-        <v>96.13526452337918</v>
+        <v>96.13526452337915</v>
       </c>
       <c r="O23" t="n">
-        <v>90.77780421427433</v>
+        <v>90.77780421427428</v>
       </c>
       <c r="P23" t="n">
-        <v>77.47675567815605</v>
+        <v>77.47675567815602</v>
       </c>
       <c r="Q23" t="n">
-        <v>58.18181691563512</v>
+        <v>58.18181691563509</v>
       </c>
       <c r="R23" t="n">
-        <v>33.84392871319248</v>
+        <v>33.84392871319247</v>
       </c>
       <c r="S23" t="n">
         <v>12.27737290194613</v>
       </c>
       <c r="T23" t="n">
-        <v>2.358494783467655</v>
+        <v>2.358494783467653</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04310213196514271</v>
+        <v>0.0431021319651427</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2882709215097962</v>
+        <v>0.2882709215097961</v>
       </c>
       <c r="H24" t="n">
-        <v>2.784090215634084</v>
+        <v>2.784090215634083</v>
       </c>
       <c r="I24" t="n">
-        <v>9.925117253736405</v>
+        <v>9.925117253736399</v>
       </c>
       <c r="J24" t="n">
-        <v>27.23528035194088</v>
+        <v>27.23528035194087</v>
       </c>
       <c r="K24" t="n">
-        <v>46.54943209309722</v>
+        <v>46.5494320930972</v>
       </c>
       <c r="L24" t="n">
-        <v>62.59145600588798</v>
+        <v>62.59145600588796</v>
       </c>
       <c r="M24" t="n">
-        <v>73.04127691061808</v>
+        <v>73.04127691061804</v>
       </c>
       <c r="N24" t="n">
-        <v>74.97446216933949</v>
+        <v>74.97446216933945</v>
       </c>
       <c r="O24" t="n">
-        <v>68.58698543483294</v>
+        <v>68.58698543483291</v>
       </c>
       <c r="P24" t="n">
-        <v>55.04710254690134</v>
+        <v>55.04710254690131</v>
       </c>
       <c r="Q24" t="n">
-        <v>36.79753026149609</v>
+        <v>36.79753026149607</v>
       </c>
       <c r="R24" t="n">
         <v>17.89808405654682</v>
       </c>
       <c r="S24" t="n">
-        <v>5.354505932429762</v>
+        <v>5.354505932429761</v>
       </c>
       <c r="T24" t="n">
-        <v>1.161934109067994</v>
+        <v>1.161934109067993</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01896519220459186</v>
+        <v>0.01896519220459185</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2416766569459464</v>
+        <v>0.2416766569459463</v>
       </c>
       <c r="H25" t="n">
-        <v>2.148725186301234</v>
+        <v>2.148725186301233</v>
       </c>
       <c r="I25" t="n">
-        <v>7.267876192519918</v>
+        <v>7.267876192519915</v>
       </c>
       <c r="J25" t="n">
-        <v>17.08653964607841</v>
+        <v>17.0865396460784</v>
       </c>
       <c r="K25" t="n">
-        <v>28.07843341608358</v>
+        <v>28.07843341608357</v>
       </c>
       <c r="L25" t="n">
-        <v>35.93072770630916</v>
+        <v>35.93072770630915</v>
       </c>
       <c r="M25" t="n">
-        <v>37.88391450653594</v>
+        <v>37.88391450653592</v>
       </c>
       <c r="N25" t="n">
-        <v>36.9831196942829</v>
+        <v>36.98311969428288</v>
       </c>
       <c r="O25" t="n">
-        <v>34.15989692905069</v>
+        <v>34.15989692905067</v>
       </c>
       <c r="P25" t="n">
-        <v>29.22969312735336</v>
+        <v>29.22969312735335</v>
       </c>
       <c r="Q25" t="n">
-        <v>20.23712442844648</v>
+        <v>20.23712442844647</v>
       </c>
       <c r="R25" t="n">
         <v>10.86666132049682</v>
       </c>
       <c r="S25" t="n">
-        <v>4.211765012412537</v>
+        <v>4.211765012412536</v>
       </c>
       <c r="T25" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01318236310614255</v>
+        <v>0.01318236310614254</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5387766495642841</v>
+        <v>0.5387766495642837</v>
       </c>
       <c r="H26" t="n">
-        <v>5.517746362350225</v>
+        <v>5.517746362350223</v>
       </c>
       <c r="I26" t="n">
-        <v>20.77118678232708</v>
+        <v>20.77118678232707</v>
       </c>
       <c r="J26" t="n">
-        <v>45.72799466095669</v>
+        <v>45.72799466095667</v>
       </c>
       <c r="K26" t="n">
-        <v>68.53441023701285</v>
+        <v>68.53441023701282</v>
       </c>
       <c r="L26" t="n">
-        <v>85.02299612611583</v>
+        <v>85.02299612611579</v>
       </c>
       <c r="M26" t="n">
-        <v>94.60446536780465</v>
+        <v>94.60446536780461</v>
       </c>
       <c r="N26" t="n">
-        <v>96.13526452337918</v>
+        <v>96.13526452337915</v>
       </c>
       <c r="O26" t="n">
-        <v>90.77780421427433</v>
+        <v>90.77780421427428</v>
       </c>
       <c r="P26" t="n">
-        <v>77.47675567815605</v>
+        <v>77.47675567815602</v>
       </c>
       <c r="Q26" t="n">
-        <v>58.18181691563512</v>
+        <v>58.18181691563509</v>
       </c>
       <c r="R26" t="n">
-        <v>33.84392871319248</v>
+        <v>33.84392871319247</v>
       </c>
       <c r="S26" t="n">
         <v>12.27737290194613</v>
       </c>
       <c r="T26" t="n">
-        <v>2.358494783467655</v>
+        <v>2.358494783467653</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04310213196514271</v>
+        <v>0.0431021319651427</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2882709215097962</v>
+        <v>0.2882709215097961</v>
       </c>
       <c r="H27" t="n">
-        <v>2.784090215634084</v>
+        <v>2.784090215634083</v>
       </c>
       <c r="I27" t="n">
-        <v>9.925117253736405</v>
+        <v>9.925117253736399</v>
       </c>
       <c r="J27" t="n">
-        <v>27.23528035194088</v>
+        <v>27.23528035194087</v>
       </c>
       <c r="K27" t="n">
-        <v>46.54943209309722</v>
+        <v>46.5494320930972</v>
       </c>
       <c r="L27" t="n">
-        <v>62.59145600588798</v>
+        <v>62.59145600588796</v>
       </c>
       <c r="M27" t="n">
-        <v>73.04127691061808</v>
+        <v>73.04127691061804</v>
       </c>
       <c r="N27" t="n">
-        <v>74.97446216933949</v>
+        <v>74.97446216933945</v>
       </c>
       <c r="O27" t="n">
-        <v>68.58698543483294</v>
+        <v>68.58698543483291</v>
       </c>
       <c r="P27" t="n">
-        <v>55.04710254690134</v>
+        <v>55.04710254690131</v>
       </c>
       <c r="Q27" t="n">
-        <v>36.79753026149609</v>
+        <v>36.79753026149607</v>
       </c>
       <c r="R27" t="n">
         <v>17.89808405654682</v>
       </c>
       <c r="S27" t="n">
-        <v>5.354505932429762</v>
+        <v>5.354505932429761</v>
       </c>
       <c r="T27" t="n">
-        <v>1.161934109067994</v>
+        <v>1.161934109067993</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01896519220459186</v>
+        <v>0.01896519220459185</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2416766569459464</v>
+        <v>0.2416766569459463</v>
       </c>
       <c r="H28" t="n">
-        <v>2.148725186301234</v>
+        <v>2.148725186301233</v>
       </c>
       <c r="I28" t="n">
-        <v>7.267876192519918</v>
+        <v>7.267876192519915</v>
       </c>
       <c r="J28" t="n">
-        <v>17.08653964607841</v>
+        <v>17.0865396460784</v>
       </c>
       <c r="K28" t="n">
-        <v>28.07843341608358</v>
+        <v>28.07843341608357</v>
       </c>
       <c r="L28" t="n">
-        <v>35.93072770630916</v>
+        <v>35.93072770630915</v>
       </c>
       <c r="M28" t="n">
-        <v>37.88391450653594</v>
+        <v>37.88391450653592</v>
       </c>
       <c r="N28" t="n">
-        <v>36.9831196942829</v>
+        <v>36.98311969428288</v>
       </c>
       <c r="O28" t="n">
-        <v>34.15989692905069</v>
+        <v>34.15989692905067</v>
       </c>
       <c r="P28" t="n">
-        <v>29.22969312735336</v>
+        <v>29.22969312735335</v>
       </c>
       <c r="Q28" t="n">
-        <v>20.23712442844648</v>
+        <v>20.23712442844647</v>
       </c>
       <c r="R28" t="n">
         <v>10.86666132049682</v>
       </c>
       <c r="S28" t="n">
-        <v>4.211765012412537</v>
+        <v>4.211765012412536</v>
       </c>
       <c r="T28" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01318236310614255</v>
+        <v>0.01318236310614254</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5387766495642841</v>
+        <v>0.538776649564283</v>
       </c>
       <c r="H29" t="n">
-        <v>5.517746362350225</v>
+        <v>5.517746362350215</v>
       </c>
       <c r="I29" t="n">
-        <v>20.77118678232708</v>
+        <v>20.77118678232704</v>
       </c>
       <c r="J29" t="n">
-        <v>45.72799466095669</v>
+        <v>45.7279946609566</v>
       </c>
       <c r="K29" t="n">
-        <v>68.53441023701285</v>
+        <v>68.53441023701272</v>
       </c>
       <c r="L29" t="n">
-        <v>85.02299612611583</v>
+        <v>85.02299612611566</v>
       </c>
       <c r="M29" t="n">
-        <v>94.60446536780465</v>
+        <v>94.60446536780447</v>
       </c>
       <c r="N29" t="n">
-        <v>96.13526452337918</v>
+        <v>96.13526452337901</v>
       </c>
       <c r="O29" t="n">
-        <v>90.77780421427433</v>
+        <v>90.77780421427416</v>
       </c>
       <c r="P29" t="n">
-        <v>77.47675567815605</v>
+        <v>77.47675567815591</v>
       </c>
       <c r="Q29" t="n">
-        <v>58.18181691563512</v>
+        <v>58.181816915635</v>
       </c>
       <c r="R29" t="n">
-        <v>33.84392871319248</v>
+        <v>33.84392871319242</v>
       </c>
       <c r="S29" t="n">
-        <v>12.27737290194613</v>
+        <v>12.27737290194611</v>
       </c>
       <c r="T29" t="n">
-        <v>2.358494783467655</v>
+        <v>2.35849478346765</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04310213196514271</v>
+        <v>0.04310213196514263</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2882709215097962</v>
+        <v>0.2882709215097956</v>
       </c>
       <c r="H30" t="n">
-        <v>2.784090215634084</v>
+        <v>2.784090215634079</v>
       </c>
       <c r="I30" t="n">
-        <v>9.925117253736405</v>
+        <v>9.925117253736385</v>
       </c>
       <c r="J30" t="n">
-        <v>27.23528035194088</v>
+        <v>27.23528035194082</v>
       </c>
       <c r="K30" t="n">
-        <v>46.54943209309722</v>
+        <v>46.54943209309712</v>
       </c>
       <c r="L30" t="n">
-        <v>62.59145600588798</v>
+        <v>62.59145600588786</v>
       </c>
       <c r="M30" t="n">
-        <v>73.04127691061808</v>
+        <v>73.04127691061794</v>
       </c>
       <c r="N30" t="n">
-        <v>74.97446216933949</v>
+        <v>74.97446216933935</v>
       </c>
       <c r="O30" t="n">
-        <v>68.58698543483294</v>
+        <v>68.58698543483281</v>
       </c>
       <c r="P30" t="n">
-        <v>55.04710254690134</v>
+        <v>55.04710254690124</v>
       </c>
       <c r="Q30" t="n">
-        <v>36.79753026149609</v>
+        <v>36.79753026149601</v>
       </c>
       <c r="R30" t="n">
-        <v>17.89808405654682</v>
+        <v>17.89808405654679</v>
       </c>
       <c r="S30" t="n">
-        <v>5.354505932429762</v>
+        <v>5.354505932429753</v>
       </c>
       <c r="T30" t="n">
-        <v>1.161934109067994</v>
+        <v>1.161934109067992</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01896519220459186</v>
+        <v>0.01896519220459182</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2416766569459464</v>
+        <v>0.241676656945946</v>
       </c>
       <c r="H31" t="n">
-        <v>2.148725186301234</v>
+        <v>2.14872518630123</v>
       </c>
       <c r="I31" t="n">
-        <v>7.267876192519918</v>
+        <v>7.267876192519904</v>
       </c>
       <c r="J31" t="n">
-        <v>17.08653964607841</v>
+        <v>17.08653964607838</v>
       </c>
       <c r="K31" t="n">
-        <v>28.07843341608358</v>
+        <v>28.07843341608353</v>
       </c>
       <c r="L31" t="n">
-        <v>35.93072770630916</v>
+        <v>35.9307277063091</v>
       </c>
       <c r="M31" t="n">
-        <v>37.88391450653594</v>
+        <v>37.88391450653587</v>
       </c>
       <c r="N31" t="n">
-        <v>36.9831196942829</v>
+        <v>36.98311969428283</v>
       </c>
       <c r="O31" t="n">
-        <v>34.15989692905069</v>
+        <v>34.15989692905062</v>
       </c>
       <c r="P31" t="n">
-        <v>29.22969312735336</v>
+        <v>29.2296931273533</v>
       </c>
       <c r="Q31" t="n">
-        <v>20.23712442844648</v>
+        <v>20.23712442844644</v>
       </c>
       <c r="R31" t="n">
-        <v>10.86666132049682</v>
+        <v>10.8666613204968</v>
       </c>
       <c r="S31" t="n">
-        <v>4.211765012412537</v>
+        <v>4.211765012412529</v>
       </c>
       <c r="T31" t="n">
-        <v>1.032618443314498</v>
+        <v>1.032618443314496</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01318236310614255</v>
+        <v>0.01318236310614252</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5387766495642841</v>
+        <v>0.5387766495642837</v>
       </c>
       <c r="H32" t="n">
-        <v>5.517746362350225</v>
+        <v>5.517746362350223</v>
       </c>
       <c r="I32" t="n">
-        <v>20.77118678232708</v>
+        <v>20.77118678232707</v>
       </c>
       <c r="J32" t="n">
-        <v>45.72799466095669</v>
+        <v>45.72799466095667</v>
       </c>
       <c r="K32" t="n">
-        <v>68.53441023701285</v>
+        <v>68.53441023701282</v>
       </c>
       <c r="L32" t="n">
-        <v>85.02299612611583</v>
+        <v>85.02299612611579</v>
       </c>
       <c r="M32" t="n">
-        <v>94.60446536780465</v>
+        <v>94.60446536780461</v>
       </c>
       <c r="N32" t="n">
-        <v>96.13526452337918</v>
+        <v>96.13526452337915</v>
       </c>
       <c r="O32" t="n">
-        <v>90.77780421427433</v>
+        <v>90.77780421427428</v>
       </c>
       <c r="P32" t="n">
-        <v>77.47675567815605</v>
+        <v>77.47675567815602</v>
       </c>
       <c r="Q32" t="n">
-        <v>58.18181691563512</v>
+        <v>58.18181691563509</v>
       </c>
       <c r="R32" t="n">
-        <v>33.84392871319248</v>
+        <v>33.84392871319247</v>
       </c>
       <c r="S32" t="n">
         <v>12.27737290194613</v>
       </c>
       <c r="T32" t="n">
-        <v>2.358494783467655</v>
+        <v>2.358494783467653</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04310213196514271</v>
+        <v>0.0431021319651427</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2882709215097962</v>
+        <v>0.2882709215097961</v>
       </c>
       <c r="H33" t="n">
-        <v>2.784090215634084</v>
+        <v>2.784090215634083</v>
       </c>
       <c r="I33" t="n">
-        <v>9.925117253736405</v>
+        <v>9.925117253736399</v>
       </c>
       <c r="J33" t="n">
-        <v>27.23528035194088</v>
+        <v>27.23528035194087</v>
       </c>
       <c r="K33" t="n">
-        <v>46.54943209309722</v>
+        <v>46.5494320930972</v>
       </c>
       <c r="L33" t="n">
-        <v>62.59145600588798</v>
+        <v>62.59145600588796</v>
       </c>
       <c r="M33" t="n">
-        <v>73.04127691061808</v>
+        <v>73.04127691061804</v>
       </c>
       <c r="N33" t="n">
-        <v>74.97446216933949</v>
+        <v>74.97446216933945</v>
       </c>
       <c r="O33" t="n">
-        <v>68.58698543483294</v>
+        <v>68.58698543483291</v>
       </c>
       <c r="P33" t="n">
-        <v>55.04710254690134</v>
+        <v>55.04710254690131</v>
       </c>
       <c r="Q33" t="n">
-        <v>36.79753026149609</v>
+        <v>36.79753026149607</v>
       </c>
       <c r="R33" t="n">
         <v>17.89808405654682</v>
       </c>
       <c r="S33" t="n">
-        <v>5.354505932429762</v>
+        <v>5.354505932429761</v>
       </c>
       <c r="T33" t="n">
-        <v>1.161934109067994</v>
+        <v>1.161934109067993</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01896519220459186</v>
+        <v>0.01896519220459185</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2416766569459464</v>
+        <v>0.2416766569459463</v>
       </c>
       <c r="H34" t="n">
-        <v>2.148725186301234</v>
+        <v>2.148725186301233</v>
       </c>
       <c r="I34" t="n">
-        <v>7.267876192519918</v>
+        <v>7.267876192519915</v>
       </c>
       <c r="J34" t="n">
-        <v>17.08653964607841</v>
+        <v>17.0865396460784</v>
       </c>
       <c r="K34" t="n">
-        <v>28.07843341608358</v>
+        <v>28.07843341608357</v>
       </c>
       <c r="L34" t="n">
-        <v>35.93072770630916</v>
+        <v>35.93072770630915</v>
       </c>
       <c r="M34" t="n">
-        <v>37.88391450653594</v>
+        <v>37.88391450653592</v>
       </c>
       <c r="N34" t="n">
-        <v>36.9831196942829</v>
+        <v>36.98311969428288</v>
       </c>
       <c r="O34" t="n">
-        <v>34.15989692905069</v>
+        <v>34.15989692905067</v>
       </c>
       <c r="P34" t="n">
-        <v>29.22969312735336</v>
+        <v>29.22969312735335</v>
       </c>
       <c r="Q34" t="n">
-        <v>20.23712442844648</v>
+        <v>20.23712442844647</v>
       </c>
       <c r="R34" t="n">
         <v>10.86666132049682</v>
       </c>
       <c r="S34" t="n">
-        <v>4.211765012412537</v>
+        <v>4.211765012412536</v>
       </c>
       <c r="T34" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01318236310614255</v>
+        <v>0.01318236310614254</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5387766495642841</v>
+        <v>0.5387766495642837</v>
       </c>
       <c r="H35" t="n">
-        <v>5.517746362350225</v>
+        <v>5.517746362350223</v>
       </c>
       <c r="I35" t="n">
-        <v>20.77118678232708</v>
+        <v>20.77118678232707</v>
       </c>
       <c r="J35" t="n">
-        <v>45.72799466095669</v>
+        <v>45.72799466095667</v>
       </c>
       <c r="K35" t="n">
-        <v>68.53441023701285</v>
+        <v>68.53441023701282</v>
       </c>
       <c r="L35" t="n">
-        <v>85.02299612611583</v>
+        <v>85.02299612611579</v>
       </c>
       <c r="M35" t="n">
-        <v>94.60446536780465</v>
+        <v>94.60446536780461</v>
       </c>
       <c r="N35" t="n">
-        <v>96.13526452337918</v>
+        <v>96.13526452337915</v>
       </c>
       <c r="O35" t="n">
-        <v>90.77780421427433</v>
+        <v>90.77780421427428</v>
       </c>
       <c r="P35" t="n">
-        <v>77.47675567815605</v>
+        <v>77.47675567815602</v>
       </c>
       <c r="Q35" t="n">
-        <v>58.18181691563512</v>
+        <v>58.18181691563509</v>
       </c>
       <c r="R35" t="n">
-        <v>33.84392871319248</v>
+        <v>33.84392871319247</v>
       </c>
       <c r="S35" t="n">
         <v>12.27737290194613</v>
       </c>
       <c r="T35" t="n">
-        <v>2.358494783467655</v>
+        <v>2.358494783467653</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04310213196514271</v>
+        <v>0.0431021319651427</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2882709215097962</v>
+        <v>0.2882709215097961</v>
       </c>
       <c r="H36" t="n">
-        <v>2.784090215634084</v>
+        <v>2.784090215634083</v>
       </c>
       <c r="I36" t="n">
-        <v>9.925117253736405</v>
+        <v>9.925117253736399</v>
       </c>
       <c r="J36" t="n">
-        <v>27.23528035194088</v>
+        <v>27.23528035194087</v>
       </c>
       <c r="K36" t="n">
-        <v>46.54943209309722</v>
+        <v>46.5494320930972</v>
       </c>
       <c r="L36" t="n">
-        <v>62.59145600588798</v>
+        <v>62.59145600588796</v>
       </c>
       <c r="M36" t="n">
-        <v>73.04127691061808</v>
+        <v>73.04127691061804</v>
       </c>
       <c r="N36" t="n">
-        <v>74.97446216933949</v>
+        <v>74.97446216933945</v>
       </c>
       <c r="O36" t="n">
-        <v>68.58698543483294</v>
+        <v>68.58698543483291</v>
       </c>
       <c r="P36" t="n">
-        <v>55.04710254690134</v>
+        <v>55.04710254690131</v>
       </c>
       <c r="Q36" t="n">
-        <v>36.79753026149609</v>
+        <v>36.79753026149607</v>
       </c>
       <c r="R36" t="n">
         <v>17.89808405654682</v>
       </c>
       <c r="S36" t="n">
-        <v>5.354505932429762</v>
+        <v>5.354505932429761</v>
       </c>
       <c r="T36" t="n">
-        <v>1.161934109067994</v>
+        <v>1.161934109067993</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01896519220459186</v>
+        <v>0.01896519220459185</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2416766569459464</v>
+        <v>0.2416766569459463</v>
       </c>
       <c r="H37" t="n">
-        <v>2.148725186301234</v>
+        <v>2.148725186301233</v>
       </c>
       <c r="I37" t="n">
-        <v>7.267876192519918</v>
+        <v>7.267876192519915</v>
       </c>
       <c r="J37" t="n">
-        <v>17.08653964607841</v>
+        <v>17.0865396460784</v>
       </c>
       <c r="K37" t="n">
-        <v>28.07843341608358</v>
+        <v>28.07843341608357</v>
       </c>
       <c r="L37" t="n">
-        <v>35.93072770630916</v>
+        <v>35.93072770630915</v>
       </c>
       <c r="M37" t="n">
-        <v>37.88391450653594</v>
+        <v>37.88391450653592</v>
       </c>
       <c r="N37" t="n">
-        <v>36.9831196942829</v>
+        <v>36.98311969428288</v>
       </c>
       <c r="O37" t="n">
-        <v>34.15989692905069</v>
+        <v>34.15989692905067</v>
       </c>
       <c r="P37" t="n">
-        <v>29.22969312735336</v>
+        <v>29.22969312735335</v>
       </c>
       <c r="Q37" t="n">
-        <v>20.23712442844648</v>
+        <v>20.23712442844647</v>
       </c>
       <c r="R37" t="n">
         <v>10.86666132049682</v>
       </c>
       <c r="S37" t="n">
-        <v>4.211765012412537</v>
+        <v>4.211765012412536</v>
       </c>
       <c r="T37" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01318236310614255</v>
+        <v>0.01318236310614254</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5387766495642841</v>
+        <v>0.5387766495642837</v>
       </c>
       <c r="H38" t="n">
-        <v>5.517746362350225</v>
+        <v>5.517746362350223</v>
       </c>
       <c r="I38" t="n">
-        <v>20.77118678232708</v>
+        <v>20.77118678232707</v>
       </c>
       <c r="J38" t="n">
-        <v>45.72799466095669</v>
+        <v>45.72799466095667</v>
       </c>
       <c r="K38" t="n">
-        <v>68.53441023701285</v>
+        <v>68.53441023701282</v>
       </c>
       <c r="L38" t="n">
-        <v>85.02299612611583</v>
+        <v>85.02299612611579</v>
       </c>
       <c r="M38" t="n">
-        <v>94.60446536780465</v>
+        <v>94.60446536780461</v>
       </c>
       <c r="N38" t="n">
-        <v>96.13526452337918</v>
+        <v>96.13526452337915</v>
       </c>
       <c r="O38" t="n">
-        <v>90.77780421427433</v>
+        <v>90.77780421427428</v>
       </c>
       <c r="P38" t="n">
-        <v>77.47675567815605</v>
+        <v>77.47675567815602</v>
       </c>
       <c r="Q38" t="n">
-        <v>58.18181691563512</v>
+        <v>58.18181691563509</v>
       </c>
       <c r="R38" t="n">
-        <v>33.84392871319248</v>
+        <v>33.84392871319247</v>
       </c>
       <c r="S38" t="n">
         <v>12.27737290194613</v>
       </c>
       <c r="T38" t="n">
-        <v>2.358494783467655</v>
+        <v>2.358494783467653</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04310213196514271</v>
+        <v>0.0431021319651427</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2882709215097962</v>
+        <v>0.2882709215097961</v>
       </c>
       <c r="H39" t="n">
-        <v>2.784090215634084</v>
+        <v>2.784090215634083</v>
       </c>
       <c r="I39" t="n">
-        <v>9.925117253736405</v>
+        <v>9.925117253736399</v>
       </c>
       <c r="J39" t="n">
-        <v>27.23528035194088</v>
+        <v>27.23528035194087</v>
       </c>
       <c r="K39" t="n">
-        <v>46.54943209309722</v>
+        <v>46.5494320930972</v>
       </c>
       <c r="L39" t="n">
-        <v>62.59145600588798</v>
+        <v>62.59145600588796</v>
       </c>
       <c r="M39" t="n">
-        <v>73.04127691061808</v>
+        <v>73.04127691061804</v>
       </c>
       <c r="N39" t="n">
-        <v>74.97446216933949</v>
+        <v>74.97446216933945</v>
       </c>
       <c r="O39" t="n">
-        <v>68.58698543483294</v>
+        <v>68.58698543483291</v>
       </c>
       <c r="P39" t="n">
-        <v>55.04710254690134</v>
+        <v>55.04710254690131</v>
       </c>
       <c r="Q39" t="n">
-        <v>36.79753026149609</v>
+        <v>36.79753026149607</v>
       </c>
       <c r="R39" t="n">
         <v>17.89808405654682</v>
       </c>
       <c r="S39" t="n">
-        <v>5.354505932429762</v>
+        <v>5.354505932429761</v>
       </c>
       <c r="T39" t="n">
-        <v>1.161934109067994</v>
+        <v>1.161934109067993</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01896519220459186</v>
+        <v>0.01896519220459185</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2416766569459464</v>
+        <v>0.2416766569459463</v>
       </c>
       <c r="H40" t="n">
-        <v>2.148725186301234</v>
+        <v>2.148725186301233</v>
       </c>
       <c r="I40" t="n">
-        <v>7.267876192519918</v>
+        <v>7.267876192519915</v>
       </c>
       <c r="J40" t="n">
-        <v>17.08653964607841</v>
+        <v>17.0865396460784</v>
       </c>
       <c r="K40" t="n">
-        <v>28.07843341608358</v>
+        <v>28.07843341608357</v>
       </c>
       <c r="L40" t="n">
-        <v>35.93072770630916</v>
+        <v>35.93072770630915</v>
       </c>
       <c r="M40" t="n">
-        <v>37.88391450653594</v>
+        <v>37.88391450653592</v>
       </c>
       <c r="N40" t="n">
-        <v>36.9831196942829</v>
+        <v>36.98311969428288</v>
       </c>
       <c r="O40" t="n">
-        <v>34.15989692905069</v>
+        <v>34.15989692905067</v>
       </c>
       <c r="P40" t="n">
-        <v>29.22969312735336</v>
+        <v>29.22969312735335</v>
       </c>
       <c r="Q40" t="n">
-        <v>20.23712442844648</v>
+        <v>20.23712442844647</v>
       </c>
       <c r="R40" t="n">
         <v>10.86666132049682</v>
       </c>
       <c r="S40" t="n">
-        <v>4.211765012412537</v>
+        <v>4.211765012412536</v>
       </c>
       <c r="T40" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01318236310614255</v>
+        <v>0.01318236310614254</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5387766495642841</v>
+        <v>0.5387766495642837</v>
       </c>
       <c r="H41" t="n">
-        <v>5.517746362350225</v>
+        <v>5.517746362350223</v>
       </c>
       <c r="I41" t="n">
-        <v>20.77118678232708</v>
+        <v>20.77118678232707</v>
       </c>
       <c r="J41" t="n">
-        <v>45.72799466095669</v>
+        <v>45.72799466095667</v>
       </c>
       <c r="K41" t="n">
-        <v>68.53441023701285</v>
+        <v>68.53441023701282</v>
       </c>
       <c r="L41" t="n">
-        <v>85.02299612611583</v>
+        <v>85.02299612611579</v>
       </c>
       <c r="M41" t="n">
-        <v>94.60446536780465</v>
+        <v>94.60446536780461</v>
       </c>
       <c r="N41" t="n">
-        <v>96.13526452337918</v>
+        <v>96.13526452337915</v>
       </c>
       <c r="O41" t="n">
-        <v>90.77780421427433</v>
+        <v>90.77780421427428</v>
       </c>
       <c r="P41" t="n">
-        <v>77.47675567815605</v>
+        <v>77.47675567815602</v>
       </c>
       <c r="Q41" t="n">
-        <v>58.18181691563512</v>
+        <v>58.18181691563509</v>
       </c>
       <c r="R41" t="n">
-        <v>33.84392871319248</v>
+        <v>33.84392871319247</v>
       </c>
       <c r="S41" t="n">
         <v>12.27737290194613</v>
       </c>
       <c r="T41" t="n">
-        <v>2.358494783467655</v>
+        <v>2.358494783467653</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04310213196514271</v>
+        <v>0.0431021319651427</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2882709215097962</v>
+        <v>0.2882709215097961</v>
       </c>
       <c r="H42" t="n">
-        <v>2.784090215634084</v>
+        <v>2.784090215634083</v>
       </c>
       <c r="I42" t="n">
-        <v>9.925117253736405</v>
+        <v>9.925117253736399</v>
       </c>
       <c r="J42" t="n">
-        <v>27.23528035194088</v>
+        <v>27.23528035194087</v>
       </c>
       <c r="K42" t="n">
-        <v>46.54943209309722</v>
+        <v>46.5494320930972</v>
       </c>
       <c r="L42" t="n">
-        <v>62.59145600588798</v>
+        <v>62.59145600588796</v>
       </c>
       <c r="M42" t="n">
-        <v>73.04127691061808</v>
+        <v>73.04127691061804</v>
       </c>
       <c r="N42" t="n">
-        <v>74.97446216933949</v>
+        <v>74.97446216933945</v>
       </c>
       <c r="O42" t="n">
-        <v>68.58698543483294</v>
+        <v>68.58698543483291</v>
       </c>
       <c r="P42" t="n">
-        <v>55.04710254690134</v>
+        <v>55.04710254690131</v>
       </c>
       <c r="Q42" t="n">
-        <v>36.79753026149609</v>
+        <v>36.79753026149607</v>
       </c>
       <c r="R42" t="n">
         <v>17.89808405654682</v>
       </c>
       <c r="S42" t="n">
-        <v>5.354505932429762</v>
+        <v>5.354505932429761</v>
       </c>
       <c r="T42" t="n">
-        <v>1.161934109067994</v>
+        <v>1.161934109067993</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01896519220459186</v>
+        <v>0.01896519220459185</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2416766569459464</v>
+        <v>0.2416766569459463</v>
       </c>
       <c r="H43" t="n">
-        <v>2.148725186301234</v>
+        <v>2.148725186301233</v>
       </c>
       <c r="I43" t="n">
-        <v>7.267876192519918</v>
+        <v>7.267876192519915</v>
       </c>
       <c r="J43" t="n">
-        <v>17.08653964607841</v>
+        <v>17.0865396460784</v>
       </c>
       <c r="K43" t="n">
-        <v>28.07843341608358</v>
+        <v>28.07843341608357</v>
       </c>
       <c r="L43" t="n">
-        <v>35.93072770630916</v>
+        <v>35.93072770630915</v>
       </c>
       <c r="M43" t="n">
-        <v>37.88391450653594</v>
+        <v>37.88391450653592</v>
       </c>
       <c r="N43" t="n">
-        <v>36.9831196942829</v>
+        <v>36.98311969428288</v>
       </c>
       <c r="O43" t="n">
-        <v>34.15989692905069</v>
+        <v>34.15989692905067</v>
       </c>
       <c r="P43" t="n">
-        <v>29.22969312735336</v>
+        <v>29.22969312735335</v>
       </c>
       <c r="Q43" t="n">
-        <v>20.23712442844648</v>
+        <v>20.23712442844647</v>
       </c>
       <c r="R43" t="n">
         <v>10.86666132049682</v>
       </c>
       <c r="S43" t="n">
-        <v>4.211765012412537</v>
+        <v>4.211765012412536</v>
       </c>
       <c r="T43" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01318236310614255</v>
+        <v>0.01318236310614254</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5387766495642841</v>
+        <v>0.5387766495642843</v>
       </c>
       <c r="H44" t="n">
-        <v>5.517746362350225</v>
+        <v>5.517746362350227</v>
       </c>
       <c r="I44" t="n">
-        <v>20.77118678232708</v>
+        <v>20.77118678232709</v>
       </c>
       <c r="J44" t="n">
-        <v>45.72799466095669</v>
+        <v>45.72799466095671</v>
       </c>
       <c r="K44" t="n">
-        <v>68.53441023701285</v>
+        <v>68.53441023701288</v>
       </c>
       <c r="L44" t="n">
-        <v>85.02299612611583</v>
+        <v>85.02299612611586</v>
       </c>
       <c r="M44" t="n">
-        <v>94.60446536780465</v>
+        <v>94.60446536780469</v>
       </c>
       <c r="N44" t="n">
-        <v>96.13526452337918</v>
+        <v>96.13526452337922</v>
       </c>
       <c r="O44" t="n">
-        <v>90.77780421427433</v>
+        <v>90.77780421427437</v>
       </c>
       <c r="P44" t="n">
-        <v>77.47675567815605</v>
+        <v>77.47675567815608</v>
       </c>
       <c r="Q44" t="n">
-        <v>58.18181691563512</v>
+        <v>58.18181691563514</v>
       </c>
       <c r="R44" t="n">
-        <v>33.84392871319248</v>
+        <v>33.8439287131925</v>
       </c>
       <c r="S44" t="n">
-        <v>12.27737290194613</v>
+        <v>12.27737290194614</v>
       </c>
       <c r="T44" t="n">
-        <v>2.358494783467655</v>
+        <v>2.358494783467656</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04310213196514271</v>
+        <v>0.04310213196514273</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2882709215097962</v>
+        <v>0.2882709215097963</v>
       </c>
       <c r="H45" t="n">
-        <v>2.784090215634084</v>
+        <v>2.784090215634086</v>
       </c>
       <c r="I45" t="n">
-        <v>9.925117253736405</v>
+        <v>9.925117253736408</v>
       </c>
       <c r="J45" t="n">
-        <v>27.23528035194088</v>
+        <v>27.23528035194089</v>
       </c>
       <c r="K45" t="n">
-        <v>46.54943209309722</v>
+        <v>46.54943209309724</v>
       </c>
       <c r="L45" t="n">
-        <v>62.59145600588798</v>
+        <v>62.59145600588801</v>
       </c>
       <c r="M45" t="n">
-        <v>73.04127691061808</v>
+        <v>73.04127691061811</v>
       </c>
       <c r="N45" t="n">
-        <v>74.97446216933949</v>
+        <v>74.97446216933952</v>
       </c>
       <c r="O45" t="n">
-        <v>68.58698543483294</v>
+        <v>68.58698543483297</v>
       </c>
       <c r="P45" t="n">
-        <v>55.04710254690134</v>
+        <v>55.04710254690136</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.79753026149609</v>
+        <v>36.7975302614961</v>
       </c>
       <c r="R45" t="n">
-        <v>17.89808405654682</v>
+        <v>17.89808405654683</v>
       </c>
       <c r="S45" t="n">
-        <v>5.354505932429762</v>
+        <v>5.354505932429765</v>
       </c>
       <c r="T45" t="n">
         <v>1.161934109067994</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01896519220459186</v>
+        <v>0.01896519220459187</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,43 +34515,43 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2416766569459464</v>
+        <v>0.2416766569459465</v>
       </c>
       <c r="H46" t="n">
-        <v>2.148725186301234</v>
+        <v>2.148725186301235</v>
       </c>
       <c r="I46" t="n">
-        <v>7.267876192519918</v>
+        <v>7.267876192519921</v>
       </c>
       <c r="J46" t="n">
-        <v>17.08653964607841</v>
+        <v>17.08653964607842</v>
       </c>
       <c r="K46" t="n">
-        <v>28.07843341608358</v>
+        <v>28.0784334160836</v>
       </c>
       <c r="L46" t="n">
-        <v>35.93072770630916</v>
+        <v>35.93072770630918</v>
       </c>
       <c r="M46" t="n">
-        <v>37.88391450653594</v>
+        <v>37.88391450653596</v>
       </c>
       <c r="N46" t="n">
-        <v>36.9831196942829</v>
+        <v>36.98311969428291</v>
       </c>
       <c r="O46" t="n">
-        <v>34.15989692905069</v>
+        <v>34.15989692905071</v>
       </c>
       <c r="P46" t="n">
-        <v>29.22969312735336</v>
+        <v>29.22969312735337</v>
       </c>
       <c r="Q46" t="n">
-        <v>20.23712442844648</v>
+        <v>20.23712442844649</v>
       </c>
       <c r="R46" t="n">
-        <v>10.86666132049682</v>
+        <v>10.86666132049683</v>
       </c>
       <c r="S46" t="n">
-        <v>4.211765012412537</v>
+        <v>4.211765012412539</v>
       </c>
       <c r="T46" t="n">
         <v>1.032618443314498</v>
@@ -35410,10 +35410,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>238.9998570709631</v>
+        <v>238.9998570709632</v>
       </c>
       <c r="L11" t="n">
-        <v>436.4223628785868</v>
+        <v>436.4223628785867</v>
       </c>
       <c r="M11" t="n">
         <v>491.8157444113278</v>
@@ -35422,7 +35422,7 @@
         <v>478.2881520867284</v>
       </c>
       <c r="O11" t="n">
-        <v>398.8632430757228</v>
+        <v>398.8632430757227</v>
       </c>
       <c r="P11" t="n">
         <v>307.938267249927</v>
@@ -35492,13 +35492,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>330.4113330401941</v>
+        <v>330.4113330401947</v>
       </c>
       <c r="M12" t="n">
         <v>562.9739572239781</v>
       </c>
       <c r="N12" t="n">
-        <v>591.4044077482507</v>
+        <v>591.4044077482506</v>
       </c>
       <c r="O12" t="n">
         <v>464.7485518834702</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>46.62700578466128</v>
+        <v>46.62700578466124</v>
       </c>
       <c r="K13" t="n">
-        <v>151.0191897391238</v>
+        <v>151.0191897391237</v>
       </c>
       <c r="L13" t="n">
-        <v>226.5511725703757</v>
+        <v>226.5511725703756</v>
       </c>
       <c r="M13" t="n">
         <v>246.066406569938</v>
@@ -35586,7 +35586,7 @@
         <v>181.8313544842262</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.08228883415049</v>
+        <v>71.08228883415045</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,10 +35647,10 @@
         <v>118.45379695672</v>
       </c>
       <c r="K14" t="n">
-        <v>120.5460601142431</v>
+        <v>120.5460601142442</v>
       </c>
       <c r="L14" t="n">
-        <v>436.4223628785868</v>
+        <v>436.4223628785867</v>
       </c>
       <c r="M14" t="n">
         <v>491.8157444113278</v>
@@ -35659,7 +35659,7 @@
         <v>478.2881520867284</v>
       </c>
       <c r="O14" t="n">
-        <v>398.8632430757228</v>
+        <v>398.8632430757227</v>
       </c>
       <c r="P14" t="n">
         <v>307.938267249927</v>
@@ -35729,13 +35729,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>330.4113330401941</v>
+        <v>330.4113330401947</v>
       </c>
       <c r="M15" t="n">
         <v>562.9739572239781</v>
       </c>
       <c r="N15" t="n">
-        <v>591.4044077482507</v>
+        <v>591.4044077482506</v>
       </c>
       <c r="O15" t="n">
         <v>464.7485518834702</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>46.62700578466128</v>
+        <v>46.62700578466124</v>
       </c>
       <c r="K16" t="n">
-        <v>151.0191897391238</v>
+        <v>151.0191897391237</v>
       </c>
       <c r="L16" t="n">
-        <v>226.5511725703757</v>
+        <v>226.5511725703756</v>
       </c>
       <c r="M16" t="n">
         <v>246.066406569938</v>
@@ -35817,13 +35817,13 @@
         <v>245.5987790526331</v>
       </c>
       <c r="O16" t="n">
-        <v>222.6152580511275</v>
+        <v>222.6152580511274</v>
       </c>
       <c r="P16" t="n">
         <v>181.8313544842262</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.08228883415049</v>
+        <v>71.08228883415045</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,10 +35884,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>311.1004426054803</v>
+        <v>238.9998570709641</v>
       </c>
       <c r="L17" t="n">
-        <v>364.3217773440696</v>
+        <v>436.4223628785867</v>
       </c>
       <c r="M17" t="n">
         <v>491.8157444113278</v>
@@ -35896,7 +35896,7 @@
         <v>478.2881520867284</v>
       </c>
       <c r="O17" t="n">
-        <v>398.8632430757228</v>
+        <v>398.8632430757227</v>
       </c>
       <c r="P17" t="n">
         <v>307.938267249927</v>
@@ -35966,13 +35966,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>432.1084713292371</v>
+        <v>330.4113330401947</v>
       </c>
       <c r="M18" t="n">
-        <v>461.2768189349351</v>
+        <v>562.9739572239781</v>
       </c>
       <c r="N18" t="n">
-        <v>591.4044077482507</v>
+        <v>591.4044077482506</v>
       </c>
       <c r="O18" t="n">
         <v>464.7485518834702</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>62.02205740057188</v>
+        <v>62.02205740057187</v>
       </c>
       <c r="L19" t="n">
         <v>137.5540402318238</v>
       </c>
       <c r="M19" t="n">
-        <v>157.0692742313862</v>
+        <v>157.0692742313861</v>
       </c>
       <c r="N19" t="n">
-        <v>156.6016467140813</v>
+        <v>156.6016467140812</v>
       </c>
       <c r="O19" t="n">
         <v>133.6181257125756</v>
       </c>
       <c r="P19" t="n">
-        <v>92.83422214567436</v>
+        <v>92.83422214567435</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36121,10 +36121,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>238.9998570709631</v>
+        <v>238.9998570709641</v>
       </c>
       <c r="L20" t="n">
-        <v>436.4223628785868</v>
+        <v>436.4223628785867</v>
       </c>
       <c r="M20" t="n">
         <v>491.8157444113278</v>
@@ -36133,7 +36133,7 @@
         <v>478.2881520867284</v>
       </c>
       <c r="O20" t="n">
-        <v>398.8632430757228</v>
+        <v>398.8632430757227</v>
       </c>
       <c r="P20" t="n">
         <v>307.938267249927</v>
@@ -36203,13 +36203,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>330.4113330401941</v>
+        <v>330.4113330401947</v>
       </c>
       <c r="M21" t="n">
         <v>562.9739572239781</v>
       </c>
       <c r="N21" t="n">
-        <v>591.4044077482507</v>
+        <v>591.4044077482506</v>
       </c>
       <c r="O21" t="n">
         <v>464.7485518834702</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>62.02205740057188</v>
+        <v>62.02205740057187</v>
       </c>
       <c r="L22" t="n">
         <v>137.5540402318238</v>
       </c>
       <c r="M22" t="n">
-        <v>157.0692742313862</v>
+        <v>157.0692742313861</v>
       </c>
       <c r="N22" t="n">
-        <v>156.6016467140813</v>
+        <v>156.6016467140812</v>
       </c>
       <c r="O22" t="n">
         <v>133.6181257125756</v>
       </c>
       <c r="P22" t="n">
-        <v>92.83422214567436</v>
+        <v>92.83422214567435</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>118.45379695672</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>120.5460601142431</v>
+        <v>238.9998570709641</v>
       </c>
       <c r="L23" t="n">
-        <v>436.4223628785868</v>
+        <v>436.4223628785867</v>
       </c>
       <c r="M23" t="n">
         <v>491.8157444113278</v>
@@ -36370,7 +36370,7 @@
         <v>478.2881520867284</v>
       </c>
       <c r="O23" t="n">
-        <v>398.8632430757228</v>
+        <v>398.8632430757227</v>
       </c>
       <c r="P23" t="n">
         <v>307.938267249927</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>88.09805462780567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>242.3132784123879</v>
+        <v>432.1084713292371</v>
       </c>
       <c r="M24" t="n">
-        <v>562.9739572239781</v>
+        <v>461.2768189349365</v>
       </c>
       <c r="N24" t="n">
-        <v>591.4044077482507</v>
+        <v>591.4044077482506</v>
       </c>
       <c r="O24" t="n">
         <v>464.7485518834702</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>62.02205740057188</v>
+        <v>62.02205740057187</v>
       </c>
       <c r="L25" t="n">
         <v>137.5540402318238</v>
       </c>
       <c r="M25" t="n">
-        <v>157.0692742313862</v>
+        <v>157.0692742313861</v>
       </c>
       <c r="N25" t="n">
-        <v>156.6016467140813</v>
+        <v>156.6016467140812</v>
       </c>
       <c r="O25" t="n">
         <v>133.6181257125756</v>
       </c>
       <c r="P25" t="n">
-        <v>92.83422214567436</v>
+        <v>92.83422214567435</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36595,10 +36595,10 @@
         <v>220.9529482126763</v>
       </c>
       <c r="K26" t="n">
-        <v>311.2490130156815</v>
+        <v>413.5995938614366</v>
       </c>
       <c r="L26" t="n">
-        <v>538.921514134543</v>
+        <v>436.5709332887889</v>
       </c>
       <c r="M26" t="n">
         <v>594.3148956672841</v>
@@ -36607,13 +36607,13 @@
         <v>580.7873033426847</v>
       </c>
       <c r="O26" t="n">
-        <v>501.3623943316791</v>
+        <v>501.362394331679</v>
       </c>
       <c r="P26" t="n">
-        <v>410.4374185058833</v>
+        <v>410.4374185058832</v>
       </c>
       <c r="Q26" t="n">
-        <v>256.0670830064773</v>
+        <v>256.0670830064772</v>
       </c>
       <c r="R26" t="n">
         <v>46.61117633004358</v>
@@ -36680,10 +36680,10 @@
         <v>432.1084713292371</v>
       </c>
       <c r="M27" t="n">
-        <v>461.2768189349346</v>
+        <v>461.2768189349351</v>
       </c>
       <c r="N27" t="n">
-        <v>591.4044077482507</v>
+        <v>591.4044077482506</v>
       </c>
       <c r="O27" t="n">
         <v>464.7485518834702</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.12902470206649</v>
+        <v>60.12902470206569</v>
       </c>
       <c r="K28" t="n">
         <v>164.5212086565282</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>118.6023673669212</v>
+        <v>220.9529482126762</v>
       </c>
       <c r="K29" t="n">
-        <v>413.5995938614366</v>
+        <v>413.5995938614365</v>
       </c>
       <c r="L29" t="n">
-        <v>538.921514134543</v>
+        <v>436.5709332887893</v>
       </c>
       <c r="M29" t="n">
-        <v>594.3148956672841</v>
+        <v>594.314895667284</v>
       </c>
       <c r="N29" t="n">
-        <v>580.7873033426847</v>
+        <v>580.7873033426845</v>
       </c>
       <c r="O29" t="n">
-        <v>501.3623943316791</v>
+        <v>501.3623943316789</v>
       </c>
       <c r="P29" t="n">
-        <v>410.4374185058833</v>
+        <v>410.4374185058831</v>
       </c>
       <c r="Q29" t="n">
-        <v>256.0670830064773</v>
+        <v>256.0670830064772</v>
       </c>
       <c r="R29" t="n">
-        <v>46.61117633004358</v>
+        <v>46.61117633004354</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,22 +36914,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>330.4113330401937</v>
+        <v>330.4113330401946</v>
       </c>
       <c r="M30" t="n">
-        <v>562.9739572239781</v>
+        <v>562.973957223978</v>
       </c>
       <c r="N30" t="n">
-        <v>591.4044077482507</v>
+        <v>591.4044077482506</v>
       </c>
       <c r="O30" t="n">
-        <v>464.7485518834702</v>
+        <v>464.74855188347</v>
       </c>
       <c r="P30" t="n">
-        <v>360.1944957546763</v>
+        <v>360.1944957546762</v>
       </c>
       <c r="Q30" t="n">
-        <v>196.1628128732074</v>
+        <v>196.1628128732073</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.12902470206569</v>
+        <v>60.12902470206568</v>
       </c>
       <c r="K31" t="n">
-        <v>164.5212086565282</v>
+        <v>164.5212086565281</v>
       </c>
       <c r="L31" t="n">
         <v>240.0531914877801</v>
@@ -37008,7 +37008,7 @@
         <v>195.3333734016306</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.5843077515549</v>
+        <v>84.58430775155489</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>220.9529482126763</v>
       </c>
       <c r="K32" t="n">
-        <v>311.2490130156802</v>
+        <v>413.5995938614366</v>
       </c>
       <c r="L32" t="n">
-        <v>538.9215141345431</v>
+        <v>538.921514134543</v>
       </c>
       <c r="M32" t="n">
-        <v>594.3148956672842</v>
+        <v>594.3148956672841</v>
       </c>
       <c r="N32" t="n">
         <v>580.7873033426847</v>
       </c>
       <c r="O32" t="n">
-        <v>501.3623943316791</v>
+        <v>501.362394331679</v>
       </c>
       <c r="P32" t="n">
-        <v>410.4374185058833</v>
+        <v>410.4374185058832</v>
       </c>
       <c r="Q32" t="n">
-        <v>256.0670830064773</v>
+        <v>153.7165021607227</v>
       </c>
       <c r="R32" t="n">
-        <v>46.61117633004366</v>
+        <v>46.61117633004358</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,13 +37151,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>330.4113330401937</v>
+        <v>330.4113330401942</v>
       </c>
       <c r="M33" t="n">
         <v>562.9739572239781</v>
       </c>
       <c r="N33" t="n">
-        <v>591.4044077482507</v>
+        <v>591.4044077482506</v>
       </c>
       <c r="O33" t="n">
         <v>464.7485518834702</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.12902470206377</v>
+        <v>60.12902470206569</v>
       </c>
       <c r="K34" t="n">
         <v>164.5212086565282</v>
       </c>
       <c r="L34" t="n">
-        <v>240.0531914877802</v>
+        <v>240.0531914877801</v>
       </c>
       <c r="M34" t="n">
-        <v>259.5684254873425</v>
+        <v>259.5684254873424</v>
       </c>
       <c r="N34" t="n">
-        <v>259.1007979700376</v>
+        <v>259.1007979700375</v>
       </c>
       <c r="O34" t="n">
-        <v>236.117276968532</v>
+        <v>236.1172769685319</v>
       </c>
       <c r="P34" t="n">
-        <v>195.3333734016307</v>
+        <v>195.3333734016306</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.58430775155499</v>
+        <v>84.5843077515549</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,10 +37306,10 @@
         <v>118.45379695672</v>
       </c>
       <c r="K35" t="n">
-        <v>311.1004426054803</v>
+        <v>311.1004426054802</v>
       </c>
       <c r="L35" t="n">
-        <v>436.4223628785868</v>
+        <v>436.4223628785867</v>
       </c>
       <c r="M35" t="n">
         <v>491.8157444113278</v>
@@ -37318,7 +37318,7 @@
         <v>478.2881520867284</v>
       </c>
       <c r="O35" t="n">
-        <v>398.8632430757228</v>
+        <v>398.8632430757227</v>
       </c>
       <c r="P35" t="n">
         <v>307.938267249927</v>
@@ -37388,13 +37388,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>330.4113330401933</v>
+        <v>330.4113330401934</v>
       </c>
       <c r="M36" t="n">
         <v>562.9739572239781</v>
       </c>
       <c r="N36" t="n">
-        <v>591.4044077482507</v>
+        <v>591.4044077482506</v>
       </c>
       <c r="O36" t="n">
         <v>464.7485518834702</v>
@@ -37464,22 +37464,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>62.02205740057188</v>
+        <v>62.02205740057187</v>
       </c>
       <c r="L37" t="n">
         <v>137.5540402318238</v>
       </c>
       <c r="M37" t="n">
-        <v>157.0692742313862</v>
+        <v>157.0692742313861</v>
       </c>
       <c r="N37" t="n">
-        <v>156.6016467140813</v>
+        <v>156.6016467140812</v>
       </c>
       <c r="O37" t="n">
         <v>133.6181257125756</v>
       </c>
       <c r="P37" t="n">
-        <v>92.83422214567436</v>
+        <v>92.83422214567435</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>118.4537969567198</v>
+        <v>118.45379695672</v>
       </c>
       <c r="K38" t="n">
-        <v>311.1004426054803</v>
+        <v>311.1004426054794</v>
       </c>
       <c r="L38" t="n">
-        <v>436.4223628785868</v>
+        <v>436.4223628785867</v>
       </c>
       <c r="M38" t="n">
         <v>491.8157444113278</v>
@@ -37555,7 +37555,7 @@
         <v>478.2881520867284</v>
       </c>
       <c r="O38" t="n">
-        <v>398.8632430757228</v>
+        <v>398.8632430757227</v>
       </c>
       <c r="P38" t="n">
         <v>307.938267249927</v>
@@ -37625,13 +37625,13 @@
         <v>278.3580710427827</v>
       </c>
       <c r="L39" t="n">
-        <v>52.05326199741056</v>
+        <v>52.05326199741067</v>
       </c>
       <c r="M39" t="n">
         <v>562.9739572239781</v>
       </c>
       <c r="N39" t="n">
-        <v>591.4044077482507</v>
+        <v>591.4044077482506</v>
       </c>
       <c r="O39" t="n">
         <v>464.7485518834702</v>
@@ -37701,22 +37701,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>62.02205740057188</v>
+        <v>62.02205740057187</v>
       </c>
       <c r="L40" t="n">
         <v>137.5540402318238</v>
       </c>
       <c r="M40" t="n">
-        <v>157.0692742313862</v>
+        <v>157.0692742313861</v>
       </c>
       <c r="N40" t="n">
-        <v>156.6016467140813</v>
+        <v>156.6016467140812</v>
       </c>
       <c r="O40" t="n">
         <v>133.6181257125756</v>
       </c>
       <c r="P40" t="n">
-        <v>92.83422214567436</v>
+        <v>92.83422214567435</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37780,10 +37780,10 @@
         <v>118.45379695672</v>
       </c>
       <c r="K41" t="n">
-        <v>311.1004426054801</v>
+        <v>311.1004426054802</v>
       </c>
       <c r="L41" t="n">
-        <v>436.4223628785868</v>
+        <v>436.4223628785867</v>
       </c>
       <c r="M41" t="n">
         <v>491.8157444113278</v>
@@ -37792,7 +37792,7 @@
         <v>478.2881520867284</v>
       </c>
       <c r="O41" t="n">
-        <v>398.8632430757228</v>
+        <v>398.8632430757227</v>
       </c>
       <c r="P41" t="n">
         <v>307.938267249927</v>
@@ -37859,16 +37859,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>278.3580710427827</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>52.05326199741056</v>
+        <v>330.4113330401934</v>
       </c>
       <c r="M42" t="n">
         <v>562.9739572239781</v>
       </c>
       <c r="N42" t="n">
-        <v>591.4044077482507</v>
+        <v>591.4044077482506</v>
       </c>
       <c r="O42" t="n">
         <v>464.7485518834702</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>62.02205740057188</v>
+        <v>62.02205740057187</v>
       </c>
       <c r="L43" t="n">
         <v>137.5540402318238</v>
       </c>
       <c r="M43" t="n">
-        <v>157.0692742313862</v>
+        <v>157.0692742313861</v>
       </c>
       <c r="N43" t="n">
-        <v>156.6016467140813</v>
+        <v>156.6016467140812</v>
       </c>
       <c r="O43" t="n">
         <v>133.6181257125756</v>
       </c>
       <c r="P43" t="n">
-        <v>92.83422214567436</v>
+        <v>92.83422214567435</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38026,7 +38026,7 @@
         <v>491.8157444113278</v>
       </c>
       <c r="N44" t="n">
-        <v>478.2881520867284</v>
+        <v>478.2881520867285</v>
       </c>
       <c r="O44" t="n">
         <v>398.8632430757228</v>
@@ -38111,7 +38111,7 @@
         <v>464.7485518834702</v>
       </c>
       <c r="P45" t="n">
-        <v>360.1944957546763</v>
+        <v>360.1944957546764</v>
       </c>
       <c r="Q45" t="n">
         <v>196.1628128732074</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>62.02205740057188</v>
+        <v>62.0220574005719</v>
       </c>
       <c r="L46" t="n">
         <v>137.5540402318238</v>
@@ -38190,7 +38190,7 @@
         <v>133.6181257125756</v>
       </c>
       <c r="P46" t="n">
-        <v>92.83422214567436</v>
+        <v>92.83422214567437</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
